--- a/static/work-tracker_advanced.xlsx
+++ b/static/work-tracker_advanced.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\Personnel\Sérieux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E653027-7E93-4972-9E90-781EF9E934F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A858B3-6254-4440-9209-BE951A50F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" activeTab="1" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="13" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>Monday</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>Average</t>
+  </si>
+  <si>
+    <t>Objective: 40 hrs/week (5 day x 8 hrs)</t>
+  </si>
+  <si>
+    <t>Objective PQO: 60% of total hours</t>
   </si>
 </sst>
 </file>
@@ -7637,7 +7643,7 @@
       <cdr:x>0.79221</cdr:x>
       <cdr:y>0.83995</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp macro="" textlink="'Fall 2019'!$Z$43">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -7670,67 +7676,19 @@
         <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Average:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t> 38.81 hrs/week</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>Objective: 40 hrs/week (5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1">
-              <a:effectLst/>
+          <a:fld id="{26D36287-4EAA-4A1F-8551-B9497C87C6E9}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t> day x 8 hrs</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Average PQO: 26.72% of total hours</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Objective PQO: 60% </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>of total hours</a:t>
-          </a:r>
+            <a:t>Average: 38.81 hrs/week
+Objective: 40 hrs/week (5 day x 8 hrs)
+Average: 26.72 hrs/week
+Objective PQO: 60% of total hours</a:t>
+          </a:fld>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
         </a:p>
       </cdr:txBody>
@@ -9065,7 +9023,7 @@
       <cdr:x>0.56176</cdr:x>
       <cdr:y>0.80074</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp macro="" textlink="'Winter 2020'!$Z$43">
       <cdr:nvSpPr>
         <cdr:cNvPr id="8" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
@@ -9162,67 +9120,19 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Average:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t> 28.06 hrs/week</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>Objective: 40 hrs/week (5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1">
-              <a:effectLst/>
+          <a:fld id="{5215997F-BCDA-489D-806E-67C8208CD417}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t> day x 8 hrs</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Average PQO: 49.90% of total hours</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Objective PQO: 60% </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>of total hours</a:t>
-          </a:r>
+            <a:t>Average: 28.06 hrs/week
+Objective: 40 hrs/week (5 day x 8 hrs)
+Average: 42.26 hrs/week
+Objective PQO: 60% of total hours</a:t>
+          </a:fld>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
         </a:p>
       </cdr:txBody>
@@ -9443,19 +9353,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.58312</cdr:x>
-      <cdr:y>0.62547</cdr:y>
+      <cdr:x>0.19083</cdr:x>
+      <cdr:y>0.65732</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.85657</cdr:x>
-      <cdr:y>0.80841</cdr:y>
+      <cdr:x>0.46428</cdr:x>
+      <cdr:y>0.84026</cdr:y>
     </cdr:to>
-    <cdr:sp macro="" textlink="">
+    <cdr:sp macro="" textlink="'Summer 2020'!$Z$43">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 1">
+        <cdr:cNvPr id="5" name="TextBox 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93453384-00FF-47AB-933C-4750970951D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{392C513B-CCE5-4280-842C-016AA0F51C93}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9463,8 +9373,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5496859" y="3300506"/>
-          <a:ext cx="2577697" cy="965353"/>
+          <a:off x="1798883" y="3468600"/>
+          <a:ext cx="2577697" cy="965347"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -9547,67 +9457,19 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1"/>
-            <a:t>Average:</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t> 39.78 hrs/week</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>Objective: 40 hrs/week (5</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1">
-              <a:effectLst/>
+          <a:fld id="{32076536-7B23-43E8-ACEA-2536911034B5}" type="TxLink">
+            <a:rPr lang="en-US" sz="1100" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t> day x 8 hrs</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Average PQO: 19.46% of total hours</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-CA">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Objective PQO: 60% </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-CA" sz="1100" b="1" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>of total hours</a:t>
-          </a:r>
+            <a:t>Average: 39.78 hrs/week
+Objective: 40 hrs/week (5 day x 8 hrs)
+Average: 19.46 hrs/week
+Objective PQO: 60% of total hours</a:t>
+          </a:fld>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
         </a:p>
       </cdr:txBody>
@@ -9769,140 +9631,6 @@
           </cell>
           <cell r="M1" t="str">
             <v>December</v>
-          </cell>
-          <cell r="N1" t="str">
-            <v>Yearly Average</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2017</v>
-          </cell>
-          <cell r="N2">
-            <v>37.125</v>
-          </cell>
-          <cell r="P2">
-            <v>12.004779405307829</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2018</v>
-          </cell>
-          <cell r="N3">
-            <v>33.977083333333333</v>
-          </cell>
-          <cell r="P3">
-            <v>3.4890612988806335</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2019</v>
-          </cell>
-          <cell r="N4">
-            <v>31.299999999999997</v>
-          </cell>
-          <cell r="P4">
-            <v>5.0667834655661279</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2020</v>
-          </cell>
-          <cell r="N5">
-            <v>35.28125</v>
-          </cell>
-          <cell r="P5">
-            <v>4.7149830465031721</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2021</v>
-          </cell>
-          <cell r="N6">
-            <v>35.710416666666667</v>
-          </cell>
-          <cell r="P6">
-            <v>3.1057016663847965</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>35.743749999999999</v>
-          </cell>
-          <cell r="C8">
-            <v>35.981250000000003</v>
-          </cell>
-          <cell r="D8">
-            <v>31.993749999999999</v>
-          </cell>
-          <cell r="E8">
-            <v>27.106249999999999</v>
-          </cell>
-          <cell r="F8">
-            <v>38.28125</v>
-          </cell>
-          <cell r="G8">
-            <v>30.967500000000001</v>
-          </cell>
-          <cell r="H8">
-            <v>31.131250000000001</v>
-          </cell>
-          <cell r="I8">
-            <v>30.84375</v>
-          </cell>
-          <cell r="J8">
-            <v>36.35</v>
-          </cell>
-          <cell r="K8">
-            <v>38.068750000000001</v>
-          </cell>
-          <cell r="L8">
-            <v>38.299999999999997</v>
-          </cell>
-          <cell r="M8">
-            <v>34.420999999999999</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>8.1944890351161934</v>
-          </cell>
-          <cell r="C10">
-            <v>1.7984933565675303</v>
-          </cell>
-          <cell r="D10">
-            <v>7.5919719734609661</v>
-          </cell>
-          <cell r="E10">
-            <v>6.5494763086434542</v>
-          </cell>
-          <cell r="F10">
-            <v>4.4442379183342906</v>
-          </cell>
-          <cell r="G10">
-            <v>10.241392836719895</v>
-          </cell>
-          <cell r="H10">
-            <v>10.47090189387527</v>
-          </cell>
-          <cell r="I10">
-            <v>6.1877532468911456</v>
-          </cell>
-          <cell r="J10">
-            <v>2.4707728161892479</v>
-          </cell>
-          <cell r="K10">
-            <v>8.6598284609005418</v>
-          </cell>
-          <cell r="L10">
-            <v>4.7244127893437042</v>
-          </cell>
-          <cell r="M10">
-            <v>7.322738897370149</v>
           </cell>
         </row>
       </sheetData>
@@ -10210,7 +9938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B6FE27-0780-44AF-82FB-9A1F916D752A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -10447,8 +10175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF153EC7-E9DA-4693-BC09-732742EBE1D6}">
   <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z38" sqref="Z38:Z43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11724,14 +11452,45 @@
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O30" s="1"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z38" t="str">
+        <f>_xlfn.CONCAT("Average: ", ROUND(INDEX(K2:K19,MATCH(1E+100,I2:I19,1)), 2), " hrs/week")</f>
+        <v>Average: 38.81 hrs/week</v>
+      </c>
+    </row>
+    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z40" t="str">
+        <f>_xlfn.CONCAT("Average: ", ROUND(INDEX(N2:N19,MATCH(1E+100,I2:I19,1)), 2), " hrs/week")</f>
+        <v>Average: 26.72 hrs/week</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="Z43" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), FALSE, Z38:Z41)</f>
+        <v>Average: 38.81 hrs/week
+Objective: 40 hrs/week (5 day x 8 hrs)
+Average: 26.72 hrs/week
+Objective PQO: 60% of total hours</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="J46" s="3"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
@@ -11834,10 +11593,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F338CE8E-79C9-4031-AEC0-0D5175012249}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="J10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13104,6 +12863,37 @@
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O30" s="1"/>
     </row>
+    <row r="38" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z38" t="str">
+        <f>_xlfn.CONCAT("Average: ", ROUND(INDEX(K2:K19,MATCH(1E+100,I2:I19,1)), 2), " hrs/week")</f>
+        <v>Average: 28.06 hrs/week</v>
+      </c>
+    </row>
+    <row r="39" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z40" t="str">
+        <f>_xlfn.CONCAT("Average: ", ROUND(INDEX(N2:N19,MATCH(1E+100,I2:I19,1)), 2), " hrs/week")</f>
+        <v>Average: 42.26 hrs/week</v>
+      </c>
+    </row>
+    <row r="41" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="26:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="Z43" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), FALSE, Z38:Z41)</f>
+        <v>Average: 28.06 hrs/week
+Objective: 40 hrs/week (5 day x 8 hrs)
+Average: 42.26 hrs/week
+Objective PQO: 60% of total hours</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13113,10 +12903,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735939E8-15A8-49BB-845D-CC0815CA17CA}">
-  <dimension ref="A1:AD29"/>
+  <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView topLeftCell="L13" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="Z38" sqref="Z38:Z43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14194,6 +13984,37 @@
       <c r="AD29" s="19">
         <f t="shared" si="3"/>
         <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z38" t="str">
+        <f>_xlfn.CONCAT("Average: ", ROUND(INDEX(K2:K19,MATCH(1E+100,I2:I19,1)), 2), " hrs/week")</f>
+        <v>Average: 39.78 hrs/week</v>
+      </c>
+    </row>
+    <row r="39" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z40" t="str">
+        <f>_xlfn.CONCAT("Average: ", ROUND(INDEX(N2:N19,MATCH(1E+100,I2:I19,1)), 2), " hrs/week")</f>
+        <v>Average: 19.46 hrs/week</v>
+      </c>
+    </row>
+    <row r="41" spans="26:26" x14ac:dyDescent="0.25">
+      <c r="Z41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="26:26" ht="60" x14ac:dyDescent="0.25">
+      <c r="Z43" s="2" t="str">
+        <f>_xlfn.TEXTJOIN(CHAR(10), FALSE, Z38:Z41)</f>
+        <v>Average: 39.78 hrs/week
+Objective: 40 hrs/week (5 day x 8 hrs)
+Average: 19.46 hrs/week
+Objective PQO: 60% of total hours</v>
       </c>
     </row>
   </sheetData>
@@ -14435,51 +14256,51 @@
         <v>66</v>
       </c>
       <c r="B6" s="39">
-        <f>AVERAGE(B2:B4)</f>
+        <f t="shared" ref="B6:M6" si="3">AVERAGE(B2:B4)</f>
         <v>31.1</v>
       </c>
       <c r="C6" s="39">
-        <f>AVERAGE(C2:C4)</f>
+        <f t="shared" si="3"/>
         <v>38.25</v>
       </c>
       <c r="D6" s="39">
-        <f>AVERAGE(D2:D4)</f>
+        <f t="shared" si="3"/>
         <v>21.25</v>
       </c>
       <c r="E6" s="40">
-        <f>AVERAGE(E2:E4)</f>
+        <f t="shared" si="3"/>
         <v>22.3</v>
       </c>
       <c r="F6" s="39">
-        <f>AVERAGE(F2:F4)</f>
+        <f t="shared" si="3"/>
         <v>41.75</v>
       </c>
       <c r="G6" s="39">
-        <f>AVERAGE(G2:G4)</f>
+        <f t="shared" si="3"/>
         <v>38.75</v>
       </c>
       <c r="H6" s="39">
-        <f>AVERAGE(H2:H4)</f>
+        <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
       <c r="I6" s="40">
-        <f>AVERAGE(I2:I4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J6" s="39">
-        <f>AVERAGE(J2:J4)</f>
+        <f t="shared" si="3"/>
         <v>39.200000000000003</v>
       </c>
       <c r="K6" s="39">
-        <f>AVERAGE(K2:K4)</f>
+        <f t="shared" si="3"/>
         <v>47.4</v>
       </c>
       <c r="L6" s="39">
-        <f>AVERAGE(L2:L4)</f>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="M6" s="40">
-        <f>AVERAGE(M2:M4)</f>
+        <f t="shared" si="3"/>
         <v>28.375</v>
       </c>
       <c r="N6" s="39">
@@ -14502,51 +14323,51 @@
         <v>64</v>
       </c>
       <c r="B7" s="35" t="e">
-        <f>STDEV(B2:B4)</f>
+        <f t="shared" ref="B7:M7" si="4">STDEV(B2:B4)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C7" s="35" t="e">
-        <f>STDEV(C2:C4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D7" s="35" t="e">
-        <f>STDEV(D2:D4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E7" s="36" t="e">
-        <f>STDEV(E2:E4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F7" s="35" t="e">
-        <f>STDEV(F2:F4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G7" s="35" t="e">
-        <f>STDEV(G2:G4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H7" s="35" t="e">
-        <f>STDEV(H2:H4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I7" s="36" t="e">
-        <f>STDEV(I2:I4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J7" s="35" t="e">
-        <f>STDEV(J2:J4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K7" s="35" t="e">
-        <f>STDEV(K2:K4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L7" s="35" t="e">
-        <f>STDEV(L2:L4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M7" s="36" t="e">
-        <f>STDEV(M2:M4)</f>
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N7" s="35" t="e">
@@ -14561,51 +14382,51 @@
         <v>65</v>
       </c>
       <c r="B8" s="32" t="e">
-        <f>CONFIDENCE(0.05,B7,COUNT(B2:B4))</f>
+        <f t="shared" ref="B8:M8" si="5">CONFIDENCE(0.05,B7,COUNT(B2:B4))</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C8" s="32" t="e">
-        <f>CONFIDENCE(0.05,C7,COUNT(C2:C4))</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="D8" s="32" t="e">
-        <f>CONFIDENCE(0.05,D7,COUNT(D2:D4))</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E8" s="33" t="e">
-        <f>CONFIDENCE(0.05,E7,COUNT(E2:E4))</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F8" s="32" t="e">
-        <f>CONFIDENCE(0.05,F7,COUNT(F2:F4))</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G8" s="32" t="e">
-        <f>CONFIDENCE(0.05,G7,COUNT(G2:G4))</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H8" s="32" t="e">
-        <f>CONFIDENCE(0.05,H7,COUNT(H2:H4))</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I8" s="33" t="e">
-        <f>CONFIDENCE(0.05,I7,COUNT(I2:I4))</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="J8" s="32" t="e">
-        <f>CONFIDENCE(0.05,J7,COUNT(J2:J4))</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K8" s="32" t="e">
-        <f>CONFIDENCE(0.05,K7,COUNT(K2:K4))</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="L8" s="32" t="e">
-        <f>CONFIDENCE(0.05,L7,COUNT(L2:L4))</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="M8" s="33" t="e">
-        <f>CONFIDENCE(0.05,M7,COUNT(M2:M4))</f>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N8" s="32" t="e">

--- a/static/work-tracker_advanced.xlsx
+++ b/static/work-tracker_advanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\Personnel\Sérieux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\GitHub\starter-academic\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57A858B3-6254-4440-9209-BE951A50F3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F96B64B-0C7A-479D-85D7-EC1C4524282B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" activeTab="1" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="13" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Summer 2020" sheetId="11" r:id="rId4"/>
     <sheet name="Across years" sheetId="14" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -159,9 +156,6 @@
     <t>After getting the idea, you can erase the existing example data (the sample hours worked, not the rest) before you start tracking your own hours.</t>
   </si>
   <si>
-    <t>You can edit the summary box (white background) with your current number of hours worked and objective.</t>
-  </si>
-  <si>
     <t>Blog post:</t>
   </si>
   <si>
@@ -267,6 +261,9 @@
   </si>
   <si>
     <t>Objective PQO: 60% of total hours</t>
+  </si>
+  <si>
+    <t>The summary box (white background) will update automatically with your current number of hours worked and objective.</t>
   </si>
 </sst>
 </file>
@@ -3972,7 +3969,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>'[1]Across years'!$B$1:$M$1</c:f>
+              <c:f>'Across years'!$B$1:$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -7684,6 +7681,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>Average: 38.81 hrs/week
 Objective: 40 hrs/week (5 day x 8 hrs)
 Average: 26.72 hrs/week
@@ -9128,6 +9126,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>Average: 28.06 hrs/week
 Objective: 40 hrs/week (5 day x 8 hrs)
 Average: 42.26 hrs/week
@@ -9465,6 +9464,7 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
+            <a:pPr algn="ctr"/>
             <a:t>Average: 39.78 hrs/week
 Objective: 40 hrs/week (5 day x 8 hrs)
 Average: 19.46 hrs/week
@@ -9557,86 +9557,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Fall 2017"/>
-      <sheetName val="Winter 2018"/>
-      <sheetName val="Summer 2018"/>
-      <sheetName val="Fall 2018"/>
-      <sheetName val="Winter 2019"/>
-      <sheetName val="Summer 2019"/>
-      <sheetName val="Fall 2019"/>
-      <sheetName val="Winter 2020"/>
-      <sheetName val="Summer 2020"/>
-      <sheetName val="Fall 2020"/>
-      <sheetName val="Winter 2021"/>
-      <sheetName val="Summer 2021"/>
-      <sheetName val="Fall 2021"/>
-      <sheetName val="Winter 2022"/>
-      <sheetName val="Across years"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>January</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>February</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>March</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>April</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>May</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>June</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>July</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>August</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>September</v>
-          </cell>
-          <cell r="K1" t="str">
-            <v>October</v>
-          </cell>
-          <cell r="L1" t="str">
-            <v>November</v>
-          </cell>
-          <cell r="M1" t="str">
-            <v>December</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9938,8 +9858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B6FE27-0780-44AF-82FB-9A1F916D752A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9973,7 +9893,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -10010,7 +9930,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -10029,10 +9949,10 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
@@ -10053,7 +9973,7 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -10074,7 +9994,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
       <c r="B16" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
@@ -10095,7 +10015,7 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="22"/>
       <c r="B17" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
@@ -10116,7 +10036,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="22"/>
       <c r="B18" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
@@ -10136,7 +10056,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
@@ -10175,8 +10095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF153EC7-E9DA-4693-BC09-732742EBE1D6}">
   <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38:Z43"/>
+    <sheetView topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10231,13 +10151,13 @@
         <v>8</v>
       </c>
       <c r="L1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="AC1" s="18" t="s">
         <v>9</v>
@@ -11460,7 +11380,7 @@
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Z39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
@@ -11471,7 +11391,7 @@
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Z41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="2:26" ht="60" x14ac:dyDescent="0.25">
@@ -11595,8 +11515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F338CE8E-79C9-4031-AEC0-0D5175012249}">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView topLeftCell="J10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11650,13 +11570,13 @@
         <v>8</v>
       </c>
       <c r="L1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="AC1" s="18" t="s">
         <v>9</v>
@@ -12871,7 +12791,7 @@
     </row>
     <row r="39" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="26:26" x14ac:dyDescent="0.25">
@@ -12882,7 +12802,7 @@
     </row>
     <row r="41" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="26:26" ht="60" x14ac:dyDescent="0.25">
@@ -12905,8 +12825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735939E8-15A8-49BB-845D-CC0815CA17CA}">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView topLeftCell="L13" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="Z38" sqref="Z38:Z43"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12961,13 +12881,13 @@
         <v>8</v>
       </c>
       <c r="L1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="AC1" s="18" t="s">
         <v>9</v>
@@ -13994,7 +13914,7 @@
     </row>
     <row r="39" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="26:26" x14ac:dyDescent="0.25">
@@ -14005,7 +13925,7 @@
     </row>
     <row r="41" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="26:26" ht="60" x14ac:dyDescent="0.25">
@@ -14026,13 +13946,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9EA836-7BD1-4E2A-95D3-0F30C78E89D8}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:S44"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14042,49 +13962,49 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>58</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>59</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>60</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>61</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -14253,7 +14173,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="39">
         <f t="shared" ref="B6:M6" si="3">AVERAGE(B2:B4)</f>
@@ -14320,7 +14240,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="35" t="e">
         <f t="shared" ref="B7:M7" si="4">STDEV(B2:B4)</f>
@@ -14379,7 +14299,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="32" t="e">
         <f t="shared" ref="B8:M8" si="5">CONFIDENCE(0.05,B7,COUNT(B2:B4))</f>
@@ -14433,6 +14353,9 @@
         <f>CONFIDENCE(0.05,N7,COUNT(N2:N3))</f>
         <v>#DIV/0!</v>
       </c>
+    </row>
+    <row r="44" spans="13:13" x14ac:dyDescent="0.25">
+      <c r="M44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/work-tracker_advanced.xlsx
+++ b/static/work-tracker_advanced.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\GitHub\starter-academic\static\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\Personnel\Sérieux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F96B64B-0C7A-479D-85D7-EC1C4524282B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD60D191-2065-4205-B804-662A10826288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
   </bookViews>
@@ -19,6 +19,9 @@
     <sheet name="Summer 2020" sheetId="11" r:id="rId4"/>
     <sheet name="Across years" sheetId="14" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="73">
   <si>
     <t>Monday</t>
   </si>
@@ -136,9 +139,6 @@
   </si>
   <si>
     <t>Credit:</t>
-  </si>
-  <si>
-    <t>Note: Some semesters have only 17 weeks, not 18! So we put x's and don’t fill it to preserve the general formatting.</t>
   </si>
   <si>
     <t>Date (Summer 2020)</t>
@@ -264,6 +264,21 @@
   </si>
   <si>
     <t>The summary box (white background) will update automatically with your current number of hours worked and objective.</t>
+  </si>
+  <si>
+    <t>(Note: Some semesters have only 17 weeks, not 18! So we put x's and don’t fill it to preserve the general formatting.)</t>
+  </si>
+  <si>
+    <t>Note: You will need to update the formulas in the cells above (rows 2019 to 2022) to reflect the actual names of your worksheets for this to work.</t>
+  </si>
+  <si>
+    <t>You will also need to verify that the row range in the formulas match the months (January to December) correctly based on your other sheets.</t>
+  </si>
+  <si>
+    <t>to an empty cell and adapt it as necessary as you progress through the year. Good luck.</t>
+  </si>
+  <si>
+    <t>The formulas simply compute the average for 4-5 weeks (rows) at a time, representing each month. You can copy a formula from an existing cell</t>
   </si>
 </sst>
 </file>
@@ -474,7 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -514,6 +528,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
@@ -1648,6 +1663,528 @@
             <a:pPr>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="1" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="7F7F7F"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Number of hours worked per day of the week</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Fall 2019'!$C$20:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Fall 2019'!$C$24:$I$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.2507363216083698</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3077764029129082</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.133817736672674</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6105129244562102</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.8622054933380381</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.8902241310245791</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.88538932375673185</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Fall 2019'!$C$24:$I$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.2507363216083698</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.3077764029129082</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.133817736672674</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.6105129244562102</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.8622054933380381</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.8902241310245791</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.88538932375673185</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Fall 2019'!$C$20:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Fall 2019'!$C$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.4722222222222214</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6388888888888893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.7222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.9722222222222223</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4444444444444444</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A020-41FB-9C50-780DEA30F9DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="765541264"/>
+        <c:axId val="765543888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="765541264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765543888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="765543888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="900" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Hours per week</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765541264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mj-lt"/>
@@ -2685,7 +3222,529 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="1" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="7F7F7F"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Number of hours worked per day of the week</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Winter 2020'!$C$20:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Winter 2020'!$C$24:$I$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.2555365620833241</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5601968369738042</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.3894219902172624</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.684178858798749</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.077601641194579</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.10888688803000299</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Winter 2020'!$C$24:$I$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.2555365620833241</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.5601968369738042</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.3894219902172624</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.684178858798749</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.077601641194579</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.10888688803000299</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Winter 2020'!$C$20:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Winter 2020'!$C$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>4.1944444444444446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.3611111111111107</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5555555555555552E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C17-494C-8CA8-F718AF8B0157}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="765541264"/>
+        <c:axId val="765543888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="765541264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765543888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="765543888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="900" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Hours per week</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765541264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3751,7 +4810,529 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+                <a:ea typeface="+mj-ea"/>
+                <a:cs typeface="+mj-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1600" b="1" i="0" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="7F7F7F"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Number of hours worked per day of the week</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+              <a:ea typeface="+mj-ea"/>
+              <a:cs typeface="+mj-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Summer 2020'!$C$20:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Summer 2020'!$C$24:$I$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.3762458403138338</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.2872161921308951</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9877449782992944</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.45171174546071</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0199975966987986</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.65332132818001787</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.21777377606000595</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Summer 2020'!$C$24:$I$24</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="7"/>
+                  <c:pt idx="0">
+                    <c:v>1.3762458403138338</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.2872161921308951</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.9877449782992944</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.45171174546071</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0199975966987986</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>0.65332132818001787</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.21777377606000595</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Summer 2020'!$C$20:$I$20</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Monday</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tuesday</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wednesday</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thursday</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Friday</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Saturday</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sunday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Summer 2020'!$C$22:$I$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7777777777777777</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2222222222222223</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37C0-4B9F-BFE1-8A1B436CC4E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="765541264"/>
+        <c:axId val="765543888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="765541264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765543888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="765543888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="900" b="1" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Hours per week</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="765541264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="dk1">
+              <a:lumMod val="15000"/>
+              <a:lumOff val="85000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="lt1"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4229,7 +5810,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4914,6 +6495,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
@@ -5466,7 +7167,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5775,7 +7476,6 @@
           <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5793,9 +7493,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="51000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6568,25 +8267,25 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -6594,7 +8293,30 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6603,36 +8325,13 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -6669,6 +8368,1655 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
@@ -7070,7 +10418,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7621,6 +10969,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1131794</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>126627</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F449F2A-973E-4CEA-A6CC-5B627FE0F9AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7684,7 +11070,7 @@
             <a:pPr algn="ctr"/>
             <a:t>Average: 38.81 hrs/week
 Objective: 40 hrs/week (5 day x 8 hrs)
-Average: 26.72 hrs/week
+Average PQO: 26.72%
 Objective PQO: 60% of total hours</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
@@ -8209,6 +11595,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>974912</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>553571</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>160244</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{914EF5E4-6700-46E4-9D8E-BBCDBF3B0989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9129,7 +12553,7 @@
             <a:pPr algn="ctr"/>
             <a:t>Average: 28.06 hrs/week
 Objective: 40 hrs/week (5 day x 8 hrs)
-Average: 42.26 hrs/week
+Average PQO: 42.26%
 Objective PQO: 60% of total hours</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
@@ -9175,6 +12599,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1042147</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>620806</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>137832</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF77E8F-0C84-451C-BF7A-15FBA4A09691}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9467,7 +12929,7 @@
             <a:pPr algn="ctr"/>
             <a:t>Average: 39.78 hrs/week
 Objective: 40 hrs/week (5 day x 8 hrs)
-Average: 19.46 hrs/week
+Average PQO: 19.46%
 Objective PQO: 60% of total hours</a:t>
           </a:fld>
           <a:endParaRPr lang="en-CA" sz="1100" b="1"/>
@@ -9483,15 +12945,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>119343</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>100293</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>284630</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>265580</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9521,15 +12983,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>70318</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>79843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>102814</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112339</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9557,6 +13019,117 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Fall 2017"/>
+      <sheetName val="Winter 2018"/>
+      <sheetName val="Summer 2018"/>
+      <sheetName val="Fall 2018"/>
+      <sheetName val="Winter 2019"/>
+      <sheetName val="Summer 2019"/>
+      <sheetName val="Fall 2019"/>
+      <sheetName val="Winter 2020"/>
+      <sheetName val="Summer 2020"/>
+      <sheetName val="Fall 2020"/>
+      <sheetName val="Winter 2021"/>
+      <sheetName val="Summer 2021"/>
+      <sheetName val="Fall 2021"/>
+      <sheetName val="Winter 2022"/>
+      <sheetName val="Across years"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13">
+        <row r="21">
+          <cell r="C21">
+            <v>6.25</v>
+          </cell>
+          <cell r="D21">
+            <v>4.625</v>
+          </cell>
+          <cell r="E21">
+            <v>5.666666666666667</v>
+          </cell>
+          <cell r="F21">
+            <v>7.125</v>
+          </cell>
+          <cell r="G21">
+            <v>3.375</v>
+          </cell>
+          <cell r="H21">
+            <v>4.583333333333333</v>
+          </cell>
+          <cell r="I21">
+            <v>5.291666666666667</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>0.84007294236794172</v>
+          </cell>
+          <cell r="D23">
+            <v>0.87090174668636888</v>
+          </cell>
+          <cell r="E23">
+            <v>1.0811700871311494</v>
+          </cell>
+          <cell r="F23">
+            <v>0.73498649420252016</v>
+          </cell>
+          <cell r="G23">
+            <v>1.1451668467412159</v>
+          </cell>
+          <cell r="H23">
+            <v>1.4863794450201808</v>
+          </cell>
+          <cell r="I23">
+            <v>1.7582596623371407</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24" t="str">
+            <v>Monday</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>Tuesday</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>Wednesday</v>
+          </cell>
+          <cell r="F24" t="str">
+            <v>Thursday</v>
+          </cell>
+          <cell r="G24" t="str">
+            <v>Friday</v>
+          </cell>
+          <cell r="H24" t="str">
+            <v>Saturday</v>
+          </cell>
+          <cell r="I24" t="str">
+            <v>Sunday</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9859,7 +13432,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9868,7 +13441,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9877,7 +13450,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -9893,7 +13466,7 @@
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -9930,7 +13503,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
@@ -9948,123 +13521,123 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
+      <c r="A14" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="20" t="s">
-        <v>36</v>
+      <c r="B21" s="19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -10076,7 +13649,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="19" t="s">
         <v>30</v>
       </c>
     </row>
@@ -10095,8 +13668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF153EC7-E9DA-4693-BC09-732742EBE1D6}">
   <dimension ref="A1:AD78"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10144,86 +13717,86 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>43703</v>
       </c>
-      <c r="B2" s="17" t="str">
+      <c r="B2" s="16" t="str">
         <f>CONCATENATE("Week 1 (", TEXT(A2,"MMM D"), ")")</f>
         <v>Week 1 (Aug 26)</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>5.5</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>8</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>0.5</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>0</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>0</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>2.5</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <f t="shared" ref="J2:J18" si="0">SUM(C2:I2)</f>
         <v>16.5</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <f>AVERAGE(J2:J2)</f>
         <v>16.5</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="23">
         <v>7.5</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="24">
         <f t="shared" ref="M2:M19" si="1">L2/J2</f>
         <v>0.45454545454545453</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f>AVERAGE(M$2:M2)*100</f>
         <v>45.454545454545453</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="AC2" s="12">
+      <c r="AC2" s="11">
         <v>45</v>
       </c>
-      <c r="AD2" s="12">
+      <c r="AD2" s="11">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <f>A2+7</f>
         <v>43710</v>
       </c>
@@ -10252,37 +13825,37 @@
       <c r="I3">
         <v>3.5</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <f>AVERAGE(J$2:J3)</f>
         <v>32.25</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="23">
         <v>9.5</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="24">
         <f t="shared" si="1"/>
         <v>0.19791666666666666</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <f>AVERAGE(M$2:M3)*100</f>
         <v>32.623106060606062</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="AC3" s="18">
+      <c r="AC3" s="17">
         <f>AC2</f>
         <v>45</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AD3" s="18">
         <f>AD2</f>
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <f t="shared" ref="A4:A19" si="2">A3+7</f>
         <v>43717</v>
       </c>
@@ -10311,37 +13884,37 @@
       <c r="I4">
         <v>6</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <f>AVERAGE(J$2:J4)</f>
         <v>38.333333333333336</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="23">
         <v>16.5</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="24">
         <f t="shared" si="1"/>
         <v>0.32673267326732675</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <f>AVERAGE(M$2:M4)*100</f>
         <v>32.639826482648267</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="AC4" s="18">
+      <c r="AC4" s="17">
         <f t="shared" ref="AC4:AC29" si="3">AC3</f>
         <v>45</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="18">
         <f t="shared" ref="AD4:AD29" si="4">AD3</f>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <f t="shared" si="2"/>
         <v>43724</v>
       </c>
@@ -10370,37 +13943,37 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <f>AVERAGE(J$2:J5)</f>
         <v>40</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <v>6</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <f t="shared" si="1"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <f>AVERAGE(M$2:M5)*100</f>
         <v>27.813203195319531</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="AC5" s="18">
+      <c r="AC5" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <f t="shared" si="2"/>
         <v>43731</v>
       </c>
@@ -10429,37 +14002,37 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <f>AVERAGE(J$2:J6)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="23">
         <v>7.5</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="24">
         <f t="shared" si="1"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <f>AVERAGE(M$2:M6)*100</f>
         <v>26.417229222922288</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="AC6" s="18">
+      <c r="AC6" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <f t="shared" si="2"/>
         <v>43738</v>
       </c>
@@ -10488,37 +14061,37 @@
       <c r="I7">
         <v>2.5</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <f>AVERAGE(J$2:J7)</f>
         <v>42.75</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="23">
         <v>3</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="24">
         <f t="shared" si="1"/>
         <v>4.9586776859504134E-2</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <f>AVERAGE(M$2:M7)*100</f>
         <v>22.840803966760312</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="AC7" s="18">
+      <c r="AC7" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD7" s="19">
+      <c r="AD7" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <f t="shared" si="2"/>
         <v>43745</v>
       </c>
@@ -10547,37 +14120,37 @@
       <c r="I8">
         <v>4.5</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <f t="shared" si="0"/>
         <v>46.5</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <f>AVERAGE(J$2:J8)</f>
         <v>43.285714285714285</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="23">
         <v>0</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="25">
         <f>AVERAGE(M$2:M8)*100</f>
         <v>19.577831971508839</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="AC8" s="18">
+      <c r="AC8" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AD8" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <f t="shared" si="2"/>
         <v>43752</v>
       </c>
@@ -10606,37 +14179,37 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <f>AVERAGE(J$2:J9)</f>
         <v>43.5</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="23">
         <v>10</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="24">
         <f t="shared" si="1"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="25">
         <f>AVERAGE(M$2:M9)*100</f>
         <v>19.908380752848011</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="AC9" s="18">
+      <c r="AC9" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD9" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <f t="shared" si="2"/>
         <v>43759</v>
       </c>
@@ -10665,37 +14238,37 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <f>AVERAGE(J$2:J10)</f>
         <v>44.277777777777779</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="23">
         <v>8</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="24">
         <f t="shared" si="1"/>
         <v>0.15841584158415842</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="25">
         <f>AVERAGE(M$2:M10)*100</f>
         <v>19.456514464577769</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="AC10" s="18">
+      <c r="AC10" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD10" s="19">
+      <c r="AD10" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <f t="shared" si="2"/>
         <v>43766</v>
       </c>
@@ -10724,37 +14297,37 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <f>AVERAGE(J$2:J11)</f>
         <v>43.3</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="23">
         <v>9.5</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="24">
         <f t="shared" si="1"/>
         <v>0.27536231884057971</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="25">
         <f>AVERAGE(M$2:M11)*100</f>
         <v>20.264486206525788</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="AC11" s="18">
+      <c r="AC11" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD11" s="19">
+      <c r="AD11" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <f t="shared" si="2"/>
         <v>43773</v>
       </c>
@@ -10783,37 +14356,37 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <f>AVERAGE(J$2:J12)</f>
         <v>42.227272727272727</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="23">
         <v>14</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="24">
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="25">
         <f>AVERAGE(M$2:M12)*100</f>
         <v>22.462664228154754</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="AC12" s="18">
+      <c r="AC12" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD12" s="19">
+      <c r="AD12" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <f t="shared" si="2"/>
         <v>43780</v>
       </c>
@@ -10842,37 +14415,37 @@
       <c r="I13">
         <v>4</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <f>AVERAGE(J$2:J13)</f>
         <v>43.041666666666664</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="23">
         <v>26</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="24">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="25">
         <f>AVERAGE(M$2:M13)*100</f>
         <v>24.757442209141857</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="AC13" s="18">
+      <c r="AC13" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD13" s="19">
+      <c r="AD13" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <f t="shared" si="2"/>
         <v>43787</v>
       </c>
@@ -10901,37 +14474,37 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <f>AVERAGE(J$2:J14)</f>
         <v>41.96153846153846</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="23">
         <v>3</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="24">
         <f t="shared" si="1"/>
         <v>0.10344827586206896</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="25">
         <f>AVERAGE(M$2:M14)*100</f>
         <v>23.648779545839169</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="AC14" s="18">
+      <c r="AC14" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD14" s="19">
+      <c r="AD14" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <f t="shared" si="2"/>
         <v>43794</v>
       </c>
@@ -10960,37 +14533,37 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <f>AVERAGE(J$2:J15)</f>
         <v>41.785714285714285</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="23">
         <v>0</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="25">
         <f>AVERAGE(M$2:M15)*100</f>
         <v>21.959581006850655</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="AC15" s="18">
+      <c r="AC15" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD15" s="19">
+      <c r="AD15" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <f t="shared" si="2"/>
         <v>43801</v>
       </c>
@@ -11019,37 +14592,37 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <f>AVERAGE(J$2:J16)</f>
         <v>41.866666666666667</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="23">
         <v>10</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="24">
         <f t="shared" si="1"/>
         <v>0.23255813953488372</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="25">
         <f>AVERAGE(M$2:M16)*100</f>
         <v>22.045996536626504</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="AC16" s="18">
+      <c r="AC16" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD16" s="19">
+      <c r="AD16" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <f t="shared" si="2"/>
         <v>43808</v>
       </c>
@@ -11078,37 +14651,37 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <f>AVERAGE(J$2:J17)</f>
         <v>41.34375</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="23">
         <v>8</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="24">
         <f t="shared" si="1"/>
         <v>0.23880597014925373</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <f>AVERAGE(M$2:M17)*100</f>
         <v>22.160659066520182</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="AC17" s="18">
+      <c r="AC17" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD17" s="19">
+      <c r="AD17" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <f t="shared" si="2"/>
         <v>43815</v>
       </c>
@@ -11137,37 +14710,37 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <f>AVERAGE(J$2:J18)</f>
         <v>41.029411764705884</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="23">
         <v>9.5</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="24">
         <f t="shared" si="1"/>
         <v>0.2638888888888889</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="25">
         <f>AVERAGE(M$2:M18)*100</f>
         <v>22.409378467835989</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="AC18" s="18">
+      <c r="AC18" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD18" s="19">
+      <c r="AD18" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <f t="shared" si="2"/>
         <v>43822</v>
       </c>
@@ -11196,175 +14769,273 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <f>SUM(C19:I19)</f>
         <v>1</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <f>AVERAGE(J$2:J19)</f>
         <v>38.805555555555557</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="23">
         <v>1</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="24">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="25">
         <f>AVERAGE(M$2:M19)*100</f>
         <v>26.719968552956214</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="AC19" s="18">
+      <c r="AC19" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD19" s="19">
+      <c r="AD19" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
+      <c r="C20" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="1"/>
-      <c r="AC20" s="18">
+      <c r="AC20" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD20" s="19">
+      <c r="AD20" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="AC21" s="18">
+      <c r="AC21" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD21" s="19">
+      <c r="AD21" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C2:C19)</f>
+        <v>4.7777777777777777</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(D2:D19)</f>
+        <v>8.4722222222222214</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(E2:E19)</f>
+        <v>5.6388888888888893</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(F2:F19)</f>
+        <v>7.7222222222222223</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(G2:G19)</f>
+        <v>7.9722222222222223</v>
+      </c>
+      <c r="H22">
+        <f>AVERAGE(H2:H19)</f>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE(I2:I19)</f>
+        <v>1.4444444444444444</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="AC22" s="18">
+      <c r="AC22" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD22" s="19">
+      <c r="AD22" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1">
+        <f>STDEV(C2:C20)</f>
+        <v>2.707409344646118</v>
+      </c>
+      <c r="D23" s="1">
+        <f>STDEV(D2:D20)</f>
+        <v>2.8308812919105044</v>
+      </c>
+      <c r="E23" s="1">
+        <f>STDEV(E2:E20)</f>
+        <v>2.4543212524968117</v>
+      </c>
+      <c r="F23" s="1">
+        <f>STDEV(F2:F20)</f>
+        <v>3.4862006211980727</v>
+      </c>
+      <c r="G23" s="1">
+        <f>STDEV(G2:G20)</f>
+        <v>4.0310275373080682</v>
+      </c>
+      <c r="H23" s="1">
+        <f>STDEV(H2:H20)</f>
+        <v>4.0916781478214386</v>
+      </c>
+      <c r="I23" s="1">
+        <f>STDEV(I2:I20)</f>
+        <v>1.9165600993392002</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="AC23" s="18">
+      <c r="AC23" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD23" s="19">
+      <c r="AD23" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <f>CONFIDENCE(0.05,C23,COUNT(C2:C19))</f>
+        <v>1.2507363216083698</v>
+      </c>
+      <c r="D24">
+        <f>CONFIDENCE(0.05,D23,COUNT(D2:D19))</f>
+        <v>1.3077764029129082</v>
+      </c>
+      <c r="E24">
+        <f>CONFIDENCE(0.05,E23,COUNT(E2:E19))</f>
+        <v>1.133817736672674</v>
+      </c>
+      <c r="F24">
+        <f>CONFIDENCE(0.05,F23,COUNT(F2:F19))</f>
+        <v>1.6105129244562102</v>
+      </c>
+      <c r="G24">
+        <f>CONFIDENCE(0.05,G23,COUNT(G2:G19))</f>
+        <v>1.8622054933380381</v>
+      </c>
+      <c r="H24">
+        <f>CONFIDENCE(0.05,H23,COUNT(H2:H19))</f>
+        <v>1.8902241310245791</v>
+      </c>
+      <c r="I24">
+        <f>CONFIDENCE(0.05,I23,COUNT(I2:I19))</f>
+        <v>0.88538932375673185</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="AC24" s="18">
+      <c r="AC24" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD24" s="19">
+      <c r="AD24" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O25" s="1"/>
-      <c r="AC25" s="18">
+      <c r="AC25" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD25" s="19">
+      <c r="AD25" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O26" s="1"/>
-      <c r="AC26" s="18">
+      <c r="AC26" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD26" s="19">
+      <c r="AD26" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O27" s="1"/>
-      <c r="AC27" s="18">
+      <c r="AC27" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD27" s="19">
+      <c r="AD27" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O28" s="1"/>
-      <c r="AC28" s="18">
+      <c r="AC28" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD28" s="19">
+      <c r="AD28" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O29" s="1"/>
-      <c r="AC29" s="18">
+      <c r="AC29" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD29" s="19">
+      <c r="AD29" s="18">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -11380,18 +15051,18 @@
     </row>
     <row r="39" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Z39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Z40" t="str">
-        <f>_xlfn.CONCAT("Average: ", ROUND(INDEX(N2:N19,MATCH(1E+100,I2:I19,1)), 2), " hrs/week")</f>
-        <v>Average: 26.72 hrs/week</v>
+        <f>_xlfn.CONCAT("Average PQO: ", ROUND(INDEX(N2:N19,MATCH(1E+100,I2:I19,1)), 2), "%")</f>
+        <v>Average PQO: 26.72%</v>
       </c>
     </row>
     <row r="41" spans="2:26" x14ac:dyDescent="0.25">
       <c r="Z41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:26" ht="60" x14ac:dyDescent="0.25">
@@ -11399,7 +15070,7 @@
         <f>_xlfn.TEXTJOIN(CHAR(10), FALSE, Z38:Z41)</f>
         <v>Average: 38.81 hrs/week
 Objective: 40 hrs/week (5 day x 8 hrs)
-Average: 26.72 hrs/week
+Average PQO: 26.72%
 Objective PQO: 60% of total hours</v>
       </c>
     </row>
@@ -11516,7 +15187,7 @@
   <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11537,7 +15208,7 @@
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>18</v>
@@ -11563,86 +15234,86 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>43829</v>
       </c>
-      <c r="B2" s="17" t="str">
+      <c r="B2" s="16" t="str">
         <f>CONCATENATE("Week 1 (", TEXT(A2,"MMM D"), ")")</f>
         <v>Week 1 (Dec 30)</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>0</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>0</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>0</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>0</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>4</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>0</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>0</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <f t="shared" ref="J2:J18" si="0">SUM(C2:I2)</f>
         <v>4</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <f>AVERAGE(J2:J2)</f>
         <v>4</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="23">
         <v>2</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="24">
         <f t="shared" ref="M2:M19" si="1">L2/J2</f>
         <v>0.5</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f>AVERAGE(M$2:M2)*100</f>
         <v>50</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="AC2" s="12">
+      <c r="AC2" s="11">
         <v>45</v>
       </c>
-      <c r="AD2" s="12">
+      <c r="AD2" s="11">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <f>A2+7</f>
         <v>43836</v>
       </c>
@@ -11671,37 +15342,37 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <f>AVERAGE(J$2:J3)</f>
         <v>20.25</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="23">
         <v>9.5</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="24">
         <f t="shared" si="1"/>
         <v>0.26027397260273971</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <f>AVERAGE(M$2:M3)*100</f>
         <v>38.013698630136986</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="AC3" s="18">
+      <c r="AC3" s="17">
         <f>AC2</f>
         <v>45</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AD3" s="18">
         <f>AD2</f>
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <f t="shared" ref="A4:A19" si="2">A3+7</f>
         <v>43843</v>
       </c>
@@ -11730,37 +15401,37 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <f t="shared" si="0"/>
         <v>35.5</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <f>AVERAGE(J$2:J4)</f>
         <v>25.333333333333332</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="23">
         <v>16.5</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="24">
         <f t="shared" si="1"/>
         <v>0.46478873239436619</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <f>AVERAGE(M$2:M4)*100</f>
         <v>40.835423499903527</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="AC4" s="18">
+      <c r="AC4" s="17">
         <f t="shared" ref="AC4:AD29" si="3">AC3</f>
         <v>45</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <f t="shared" si="2"/>
         <v>43850</v>
       </c>
@@ -11789,37 +15460,37 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <f>AVERAGE(J$2:J5)</f>
         <v>28.875</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <v>6</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <f t="shared" si="1"/>
         <v>0.15189873417721519</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <f>AVERAGE(M$2:M5)*100</f>
         <v>34.424035979358024</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="AC5" s="18">
+      <c r="AC5" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <f t="shared" si="2"/>
         <v>43857</v>
       </c>
@@ -11848,37 +15519,37 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <f>AVERAGE(J$2:J6)</f>
         <v>31.1</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="23">
         <v>7.5</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="24">
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <f>AVERAGE(M$2:M6)*100</f>
         <v>31.289228783486422</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="AC6" s="18">
+      <c r="AC6" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <f t="shared" si="2"/>
         <v>43864</v>
       </c>
@@ -11907,37 +15578,37 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <f>AVERAGE(J$2:J7)</f>
         <v>31.083333333333332</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="23">
         <v>3</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="24">
         <f t="shared" si="1"/>
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <f>AVERAGE(M$2:M7)*100</f>
         <v>27.687260545378468</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="AC7" s="18">
+      <c r="AC7" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD7" s="19">
+      <c r="AD7" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <f t="shared" si="2"/>
         <v>43871</v>
       </c>
@@ -11966,37 +15637,37 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <f>AVERAGE(J$2:J8)</f>
         <v>32.642857142857146</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="23">
         <v>0</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="25">
         <f>AVERAGE(M$2:M8)*100</f>
         <v>23.731937610324401</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="AC8" s="18">
+      <c r="AC8" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AD8" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <f t="shared" si="2"/>
         <v>43878</v>
       </c>
@@ -12025,37 +15696,37 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <f>AVERAGE(J$2:J9)</f>
         <v>33.25</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="23">
         <v>10</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="24">
         <f t="shared" si="1"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="25">
         <f>AVERAGE(M$2:M9)*100</f>
         <v>24.098778742367184</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="AC9" s="18">
+      <c r="AC9" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD9" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <f t="shared" si="2"/>
         <v>43885</v>
       </c>
@@ -12084,37 +15755,37 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <f>AVERAGE(J$2:J10)</f>
         <v>34.277777777777779</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="23">
         <v>8</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="24">
         <f t="shared" si="1"/>
         <v>0.18823529411764706</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="25">
         <f>AVERAGE(M$2:M10)*100</f>
         <v>23.512639927855794</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="AC10" s="18">
+      <c r="AC10" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD10" s="19">
+      <c r="AD10" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <f t="shared" si="2"/>
         <v>43892</v>
       </c>
@@ -12143,37 +15814,37 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <f>AVERAGE(J$2:J11)</f>
         <v>34.15</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="23">
         <v>9.5</v>
       </c>
-      <c r="M11" s="25">
+      <c r="M11" s="24">
         <f t="shared" si="1"/>
         <v>0.2878787878787879</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="25">
         <f>AVERAGE(M$2:M11)*100</f>
         <v>24.040163813858094</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="AC11" s="18">
+      <c r="AC11" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD11" s="19">
+      <c r="AD11" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <f t="shared" si="2"/>
         <v>43899</v>
       </c>
@@ -12202,37 +15873,37 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <f>AVERAGE(J$2:J12)</f>
         <v>33.090909090909093</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="23">
         <v>14</v>
       </c>
-      <c r="M12" s="25">
+      <c r="M12" s="24">
         <f t="shared" si="1"/>
         <v>0.62222222222222223</v>
       </c>
-      <c r="N12" s="26">
+      <c r="N12" s="25">
         <f>AVERAGE(M$2:M12)*100</f>
         <v>27.511260032800287</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="AC12" s="18">
+      <c r="AC12" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD12" s="19">
+      <c r="AD12" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <f t="shared" si="2"/>
         <v>43906</v>
       </c>
@@ -12261,37 +15932,37 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <f>AVERAGE(J$2:J13)</f>
         <v>31.041666666666668</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="23">
         <v>26</v>
       </c>
-      <c r="M13" s="25">
+      <c r="M13" s="24">
         <f t="shared" si="1"/>
         <v>3.0588235294117645</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="25">
         <f>AVERAGE(M$2:M13)*100</f>
         <v>50.708851108498308</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="AC13" s="18">
+      <c r="AC13" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD13" s="19">
+      <c r="AD13" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <f t="shared" si="2"/>
         <v>43913</v>
       </c>
@@ -12320,37 +15991,37 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <f>AVERAGE(J$2:J14)</f>
         <v>30.26923076923077</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="23">
         <v>3</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="24">
         <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="25">
         <f>AVERAGE(M$2:M14)*100</f>
         <v>47.907071352899536</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="AC14" s="18">
+      <c r="AC14" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD14" s="19">
+      <c r="AD14" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <f t="shared" si="2"/>
         <v>43920</v>
       </c>
@@ -12379,37 +16050,37 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <f>AVERAGE(J$2:J15)</f>
         <v>29.964285714285715</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="23">
         <v>0</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="25">
         <f>AVERAGE(M$2:M15)*100</f>
         <v>44.485137684835287</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="AC15" s="18">
+      <c r="AC15" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD15" s="19">
+      <c r="AD15" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <f t="shared" si="2"/>
         <v>43927</v>
       </c>
@@ -12438,37 +16109,37 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <f>AVERAGE(J$2:J16)</f>
         <v>29.666666666666668</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="23">
         <v>10</v>
       </c>
-      <c r="M16" s="25">
+      <c r="M16" s="24">
         <f t="shared" si="1"/>
         <v>0.39215686274509803</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="25">
         <f>AVERAGE(M$2:M16)*100</f>
         <v>44.133840924146924</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="AC16" s="18">
+      <c r="AC16" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD16" s="19">
+      <c r="AD16" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <f t="shared" si="2"/>
         <v>43934</v>
       </c>
@@ -12497,37 +16168,37 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <f>AVERAGE(J$2:J17)</f>
         <v>28.71875</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="23">
         <v>8</v>
       </c>
-      <c r="M17" s="25">
+      <c r="M17" s="24">
         <f t="shared" si="1"/>
         <v>0.55172413793103448</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <f>AVERAGE(M$2:M17)*100</f>
         <v>44.823751728456706</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="AC17" s="18">
+      <c r="AC17" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD17" s="19">
+      <c r="AD17" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <f t="shared" si="2"/>
         <v>43941</v>
       </c>
@@ -12556,37 +16227,37 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <f>AVERAGE(J$2:J18)</f>
         <v>28.470588235294116</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="23">
         <v>9.5</v>
       </c>
-      <c r="M18" s="25">
+      <c r="M18" s="24">
         <f t="shared" si="1"/>
         <v>0.38775510204081631</v>
       </c>
-      <c r="N18" s="26">
+      <c r="N18" s="25">
         <f>AVERAGE(M$2:M18)*100</f>
         <v>44.467972815258172</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="AC18" s="18">
+      <c r="AC18" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD18" s="19">
+      <c r="AD18" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <f t="shared" si="2"/>
         <v>43948</v>
       </c>
@@ -12615,48 +16286,69 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <f>SUM(C19:I19)</f>
         <v>21</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <f>AVERAGE(J$2:J19)</f>
         <v>28.055555555555557</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="23">
         <v>1</v>
       </c>
-      <c r="M19" s="25">
+      <c r="M19" s="24">
         <f t="shared" si="1"/>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="N19" s="26">
+      <c r="N19" s="25">
         <f>AVERAGE(M$2:M19)*100</f>
         <v>42.262080145627422</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="AC19" s="18">
+      <c r="AC19" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD19" s="19">
+      <c r="AD19" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
+      <c r="C20" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>6</v>
+      </c>
       <c r="J20" s="3"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="1"/>
-      <c r="AC20" s="18">
+      <c r="AC20" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD20" s="19">
+      <c r="AD20" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -12667,115 +16359,200 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="AC21" s="18">
+      <c r="AC21" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD21" s="19">
+      <c r="AD21" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C2:C19)</f>
+        <v>4.1944444444444446</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(D2:D19)</f>
+        <v>6.3611111111111107</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(E2:E19)</f>
+        <v>4.8888888888888893</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(F2:F19)</f>
+        <v>6.5555555555555554</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(G2:G19)</f>
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <f>AVERAGE(H2:H19)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE(I2:I19)</f>
+        <v>0</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="AC22" s="18">
+      <c r="AC22" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD22" s="19">
+      <c r="AD22" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1">
+        <f>STDEV(C2:C20)</f>
+        <v>2.717800196573827</v>
+      </c>
+      <c r="D23" s="1">
+        <f>STDEV(D2:D20)</f>
+        <v>3.3772837831064759</v>
+      </c>
+      <c r="E23" s="1">
+        <f>STDEV(E2:E20)</f>
+        <v>3.0076156060884722</v>
+      </c>
+      <c r="F23" s="1">
+        <f>STDEV(F2:F20)</f>
+        <v>3.6456617606687836</v>
+      </c>
+      <c r="G23" s="1">
+        <f>STDEV(G2:G20)</f>
+        <v>2.3326329481056884</v>
+      </c>
+      <c r="H23" s="1">
+        <f>STDEV(H2:H20)</f>
+        <v>0.23570226039551584</v>
+      </c>
+      <c r="I23" s="1">
+        <f>STDEV(I2:I20)</f>
+        <v>0</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="AC23" s="18">
+      <c r="AC23" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD23" s="19">
+      <c r="AD23" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <f>CONFIDENCE(0.05,C23,COUNT(C2:C19))</f>
+        <v>1.2555365620833241</v>
+      </c>
+      <c r="D24">
+        <f>CONFIDENCE(0.05,D23,COUNT(D2:D19))</f>
+        <v>1.5601968369738042</v>
+      </c>
+      <c r="E24">
+        <f>CONFIDENCE(0.05,E23,COUNT(E2:E19))</f>
+        <v>1.3894219902172624</v>
+      </c>
+      <c r="F24">
+        <f>CONFIDENCE(0.05,F23,COUNT(F2:F19))</f>
+        <v>1.684178858798749</v>
+      </c>
+      <c r="G24">
+        <f>CONFIDENCE(0.05,G23,COUNT(G2:G19))</f>
+        <v>1.077601641194579</v>
+      </c>
+      <c r="H24">
+        <f>CONFIDENCE(0.05,H23,COUNT(H2:H19))</f>
+        <v>0.10888688803000299</v>
+      </c>
+      <c r="I24" t="e">
+        <f>CONFIDENCE(0.05,I23,COUNT(I2:I19))</f>
+        <v>#NUM!</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="AC24" s="18">
+      <c r="AC24" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD24" s="19">
+      <c r="AD24" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O25" s="1"/>
-      <c r="AC25" s="18">
+      <c r="AC25" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD25" s="19">
+      <c r="AD25" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O26" s="1"/>
-      <c r="AC26" s="18">
+      <c r="AC26" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD26" s="19">
+      <c r="AD26" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O27" s="1"/>
-      <c r="AC27" s="18">
+      <c r="AC27" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD27" s="19">
+      <c r="AD27" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O28" s="1"/>
-      <c r="AC28" s="18">
+      <c r="AC28" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD28" s="19">
+      <c r="AD28" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O29" s="1"/>
-      <c r="AC29" s="18">
+      <c r="AC29" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD29" s="19">
+      <c r="AD29" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -12791,18 +16568,18 @@
     </row>
     <row r="39" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z40" t="str">
-        <f>_xlfn.CONCAT("Average: ", ROUND(INDEX(N2:N19,MATCH(1E+100,I2:I19,1)), 2), " hrs/week")</f>
-        <v>Average: 42.26 hrs/week</v>
+        <f>_xlfn.CONCAT("Average PQO: ", ROUND(INDEX(N2:N19,MATCH(1E+100,I2:I19,1)), 2), "%")</f>
+        <v>Average PQO: 42.26%</v>
       </c>
     </row>
     <row r="41" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="26:26" ht="60" x14ac:dyDescent="0.25">
@@ -12810,7 +16587,7 @@
         <f>_xlfn.TEXTJOIN(CHAR(10), FALSE, Z38:Z41)</f>
         <v>Average: 28.06 hrs/week
 Objective: 40 hrs/week (5 day x 8 hrs)
-Average: 42.26 hrs/week
+Average PQO: 42.26%
 Objective PQO: 60% of total hours</v>
       </c>
     </row>
@@ -12826,7 +16603,7 @@
   <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12848,7 +16625,7 @@
   <sheetData>
     <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>18</v>
@@ -12874,86 +16651,86 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="N1" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC1" s="18" t="s">
+      <c r="AC1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="19" t="s">
+      <c r="AD1" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>43955</v>
       </c>
-      <c r="B2" s="17" t="str">
+      <c r="B2" s="16" t="str">
         <f>CONCATENATE("Week 1 (", TEXT(A2,"MMM D"), ")")</f>
         <v>Week 1 (May 4)</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="16">
         <v>7</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>5.5</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>9</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>7</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="16">
         <v>7.5</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="16">
         <v>0</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>0</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <f t="shared" ref="J2:J19" si="0">SUM(C2:I2)</f>
         <v>36</v>
       </c>
-      <c r="K2" s="14">
+      <c r="K2" s="13">
         <f>AVERAGE(J2:J2)</f>
         <v>36</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="23">
         <v>7.5</v>
       </c>
-      <c r="M2" s="25">
+      <c r="M2" s="24">
         <f t="shared" ref="M2:M19" si="1">L2/J2</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <f>AVERAGE(M$2:M2)*100</f>
         <v>20.833333333333336</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="AC2" s="12">
+      <c r="AC2" s="11">
         <v>45</v>
       </c>
-      <c r="AD2" s="12">
+      <c r="AD2" s="11">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <f>A2+7</f>
         <v>43962</v>
       </c>
@@ -12982,37 +16759,37 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="13">
         <f>AVERAGE(J$2:J3)</f>
         <v>32.5</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="23">
         <v>9.5</v>
       </c>
-      <c r="M3" s="25">
+      <c r="M3" s="24">
         <f t="shared" si="1"/>
         <v>0.32758620689655171</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="25">
         <f>AVERAGE(M$2:M3)*100</f>
         <v>26.795977011494255</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="AC3" s="18">
+      <c r="AC3" s="17">
         <f>AC2</f>
         <v>45</v>
       </c>
-      <c r="AD3" s="19">
+      <c r="AD3" s="18">
         <f>AD2</f>
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <f t="shared" ref="A4:A19" si="2">A3+7</f>
         <v>43969</v>
       </c>
@@ -13041,37 +16818,37 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <f>AVERAGE(J$2:J4)</f>
         <v>39.833333333333336</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="23">
         <v>16.5</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="24">
         <f t="shared" si="1"/>
         <v>0.30275229357798167</v>
       </c>
-      <c r="N4" s="26">
+      <c r="N4" s="25">
         <f>AVERAGE(M$2:M4)*100</f>
         <v>27.955727793595557</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="AC4" s="18">
+      <c r="AC4" s="17">
         <f t="shared" ref="AC4:AD29" si="3">AC3</f>
         <v>45</v>
       </c>
-      <c r="AD4" s="19">
+      <c r="AD4" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <f t="shared" si="2"/>
         <v>43976</v>
       </c>
@@ -13100,37 +16877,37 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <f t="shared" si="0"/>
         <v>47.5</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <f>AVERAGE(J$2:J5)</f>
         <v>41.75</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="23">
         <v>6</v>
       </c>
-      <c r="M5" s="25">
+      <c r="M5" s="24">
         <f t="shared" si="1"/>
         <v>0.12631578947368421</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="25">
         <f>AVERAGE(M$2:M5)*100</f>
         <v>24.12469058203877</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="AC5" s="18">
+      <c r="AC5" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD5" s="19">
+      <c r="AD5" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <f t="shared" si="2"/>
         <v>43983</v>
       </c>
@@ -13159,37 +16936,37 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <f>AVERAGE(J$2:J6)</f>
         <v>40.1</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="23">
         <v>7.5</v>
       </c>
-      <c r="M6" s="25">
+      <c r="M6" s="24">
         <f t="shared" si="1"/>
         <v>0.22388059701492538</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <f>AVERAGE(M$2:M6)*100</f>
         <v>23.777364405929525</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="AC6" s="18">
+      <c r="AC6" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AD6" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <f t="shared" si="2"/>
         <v>43990</v>
       </c>
@@ -13218,37 +16995,37 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <f>AVERAGE(J$2:J7)</f>
         <v>41.416666666666664</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="23">
         <v>3</v>
       </c>
-      <c r="M7" s="25">
+      <c r="M7" s="24">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <f>AVERAGE(M$2:M7)*100</f>
         <v>20.856137004941271</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="AC7" s="18">
+      <c r="AC7" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD7" s="19">
+      <c r="AD7" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <f t="shared" si="2"/>
         <v>43997</v>
       </c>
@@ -13277,37 +17054,37 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <f>AVERAGE(J$2:J8)</f>
         <v>40.857142857142854</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="23">
         <v>0</v>
       </c>
-      <c r="M8" s="25">
+      <c r="M8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="25">
         <f>AVERAGE(M$2:M8)*100</f>
         <v>17.876688861378231</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="AC8" s="18">
+      <c r="AC8" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD8" s="19">
+      <c r="AD8" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <f t="shared" si="2"/>
         <v>44004</v>
       </c>
@@ -13336,37 +17113,37 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <f>AVERAGE(J$2:J9)</f>
         <v>40.25</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="23">
         <v>10</v>
       </c>
-      <c r="M9" s="25">
+      <c r="M9" s="24">
         <f t="shared" si="1"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="25">
         <f>AVERAGE(M$2:M9)*100</f>
         <v>19.114324975928177</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="AC9" s="18">
+      <c r="AC9" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD9" s="19">
+      <c r="AD9" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <f t="shared" si="2"/>
         <v>44011</v>
       </c>
@@ -13395,37 +17172,37 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="13">
         <f>AVERAGE(J$2:J10)</f>
         <v>39.777777777777779</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="23">
         <v>8</v>
       </c>
-      <c r="M10" s="25">
+      <c r="M10" s="24">
         <f t="shared" si="1"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="25">
         <f>AVERAGE(M$2:M10)*100</f>
         <v>19.459646892183073</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="AC10" s="18">
+      <c r="AC10" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD10" s="19">
+      <c r="AD10" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <f t="shared" si="2"/>
         <v>44018</v>
       </c>
@@ -13433,35 +17210,35 @@
         <f>CONCATENATE("Week 10 (", TEXT(A11,"MMM D"), ")")</f>
         <v>Week 10 (Jul 6)</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="13">
         <f>AVERAGE(J$2:J11)</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25" t="e">
+      <c r="L11" s="23"/>
+      <c r="M11" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="26" t="e">
+      <c r="N11" s="25" t="e">
         <f>AVERAGE(M$2:M11)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="AC11" s="18">
+      <c r="AC11" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD11" s="19">
+      <c r="AD11" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <f t="shared" si="2"/>
         <v>44025</v>
       </c>
@@ -13469,35 +17246,35 @@
         <f>CONCATENATE("Week 11 (", TEXT(A12,"MMM D"), ")")</f>
         <v>Week 11 (Jul 13)</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <f>AVERAGE(J$2:J12)</f>
         <v>32.545454545454547</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25" t="e">
+      <c r="L12" s="23"/>
+      <c r="M12" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N12" s="26" t="e">
+      <c r="N12" s="25" t="e">
         <f>AVERAGE(M$2:M12)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="AC12" s="18">
+      <c r="AC12" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD12" s="19">
+      <c r="AD12" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <f t="shared" si="2"/>
         <v>44032</v>
       </c>
@@ -13505,35 +17282,35 @@
         <f>CONCATENATE("Week 12 (", TEXT(A13,"MMM D"), ")")</f>
         <v>Week 12 (Jul 20)</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <f>AVERAGE(J$2:J13)</f>
         <v>29.833333333333332</v>
       </c>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25" t="e">
+      <c r="L13" s="23"/>
+      <c r="M13" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N13" s="26" t="e">
+      <c r="N13" s="25" t="e">
         <f>AVERAGE(M$2:M13)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="AC13" s="18">
+      <c r="AC13" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD13" s="19">
+      <c r="AD13" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <f t="shared" si="2"/>
         <v>44039</v>
       </c>
@@ -13541,35 +17318,35 @@
         <f>CONCATENATE("Week 13 (", TEXT(A14,"MMM D"), ")")</f>
         <v>Week 13 (Jul 27)</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <f>AVERAGE(J$2:J14)</f>
         <v>27.53846153846154</v>
       </c>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25" t="e">
+      <c r="L14" s="23"/>
+      <c r="M14" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N14" s="26" t="e">
+      <c r="N14" s="25" t="e">
         <f>AVERAGE(M$2:M14)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="AC14" s="18">
+      <c r="AC14" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD14" s="19">
+      <c r="AD14" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <f t="shared" si="2"/>
         <v>44046</v>
       </c>
@@ -13577,35 +17354,35 @@
         <f>CONCATENATE("Week 14 (", TEXT(A15,"MMM D"), ")")</f>
         <v>Week 14 (Aug 3)</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <f>AVERAGE(J$2:J15)</f>
         <v>25.571428571428573</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25" t="e">
+      <c r="L15" s="23"/>
+      <c r="M15" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N15" s="26" t="e">
+      <c r="N15" s="25" t="e">
         <f>AVERAGE(M$2:M15)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="AC15" s="18">
+      <c r="AC15" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD15" s="19">
+      <c r="AD15" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <f t="shared" si="2"/>
         <v>44053</v>
       </c>
@@ -13613,35 +17390,35 @@
         <f>CONCATENATE("Week 15 (", TEXT(A16,"MMM D"), ")")</f>
         <v>Week 15 (Aug 10)</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <f>AVERAGE(J$2:J16)</f>
         <v>23.866666666666667</v>
       </c>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25" t="e">
+      <c r="L16" s="23"/>
+      <c r="M16" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N16" s="26" t="e">
+      <c r="N16" s="25" t="e">
         <f>AVERAGE(M$2:M16)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="AC16" s="18">
+      <c r="AC16" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD16" s="19">
+      <c r="AD16" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <f t="shared" si="2"/>
         <v>44060</v>
       </c>
@@ -13649,35 +17426,35 @@
         <f>CONCATENATE("Week 16 (", TEXT(A17,"MMM D"), ")")</f>
         <v>Week 16 (Aug 17)</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <f>AVERAGE(J$2:J17)</f>
         <v>22.375</v>
       </c>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25" t="e">
+      <c r="L17" s="23"/>
+      <c r="M17" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N17" s="26" t="e">
+      <c r="N17" s="25" t="e">
         <f>AVERAGE(M$2:M17)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="AC17" s="18">
+      <c r="AC17" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD17" s="19">
+      <c r="AD17" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <f t="shared" si="2"/>
         <v>44067</v>
       </c>
@@ -13685,35 +17462,35 @@
         <f>CONCATENATE("Week 17 (", TEXT(A18,"MMM D"), ")")</f>
         <v>Week 17 (Aug 24)</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <f>AVERAGE(J$2:J18)</f>
         <v>21.058823529411764</v>
       </c>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25" t="e">
+      <c r="L18" s="23"/>
+      <c r="M18" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="26" t="e">
+      <c r="N18" s="25" t="e">
         <f>AVERAGE(M$2:M18)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="AC18" s="18">
+      <c r="AC18" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD18" s="19">
+      <c r="AD18" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <f t="shared" si="2"/>
         <v>44074</v>
       </c>
@@ -13742,166 +17519,279 @@
       <c r="I19" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="14">
+      <c r="K19" s="13">
         <f>AVERAGE(J$2:J19)</f>
         <v>19.888888888888889</v>
       </c>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25" t="e">
+      <c r="L19" s="23"/>
+      <c r="M19" s="24" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="26" t="e">
+      <c r="N19" s="25" t="e">
         <f>AVERAGE(M$2:M19)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="AC19" s="18">
+      <c r="AC19" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD19" s="19">
+      <c r="AD19" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
+      <c r="C20" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>6</v>
+      </c>
       <c r="K20" s="1"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="1"/>
-      <c r="AC20" s="18">
+      <c r="AC20" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD20" s="19">
+      <c r="AD20" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="AC21" s="18">
+      <c r="AC21" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD21" s="19">
+      <c r="AD21" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B22" s="5"/>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C2:C19)</f>
+        <v>8.5</v>
+      </c>
+      <c r="D22">
+        <f>AVERAGE(D2:D19)</f>
+        <v>7.7777777777777777</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(E2:E19)</f>
+        <v>6.2222222222222223</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(F2:F19)</f>
+        <v>8.1666666666666661</v>
+      </c>
+      <c r="G22">
+        <f>AVERAGE(G2:G19)</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="H22">
+        <f>AVERAGE(H2:H19)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I22">
+        <f>AVERAGE(I2:I19)</f>
+        <v>0.1111111111111111</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="AC22" s="18">
+      <c r="AC22" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD22" s="19">
+      <c r="AD22" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1">
+        <f>STDEV(C2:C20)</f>
+        <v>2.1065374432940898</v>
+      </c>
+      <c r="D23" s="1">
+        <f>STDEV(D2:D20)</f>
+        <v>1.9702650695894812</v>
+      </c>
+      <c r="E23" s="1">
+        <f>STDEV(E2:E20)</f>
+        <v>3.0425227105881136</v>
+      </c>
+      <c r="F23" s="1">
+        <f>STDEV(F2:F20)</f>
+        <v>2.2220486043288972</v>
+      </c>
+      <c r="G23" s="1">
+        <f>STDEV(G2:G20)</f>
+        <v>1.5612494995995996</v>
+      </c>
+      <c r="H23" s="1">
+        <f>STDEV(H2:H20)</f>
+        <v>1</v>
+      </c>
+      <c r="I23" s="1">
+        <f>STDEV(I2:I20)</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="AC23" s="18">
+      <c r="AC23" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD23" s="19">
+      <c r="AD23" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
+        <f>CONFIDENCE(0.05,C23,COUNT(C2:C19))</f>
+        <v>1.3762458403138338</v>
+      </c>
+      <c r="D24">
+        <f>CONFIDENCE(0.05,D23,COUNT(D2:D19))</f>
+        <v>1.2872161921308951</v>
+      </c>
+      <c r="E24">
+        <f>CONFIDENCE(0.05,E23,COUNT(E2:E19))</f>
+        <v>1.9877449782992944</v>
+      </c>
+      <c r="F24">
+        <f>CONFIDENCE(0.05,F23,COUNT(F2:F19))</f>
+        <v>1.45171174546071</v>
+      </c>
+      <c r="G24">
+        <f>CONFIDENCE(0.05,G23,COUNT(G2:G19))</f>
+        <v>1.0199975966987986</v>
+      </c>
+      <c r="H24">
+        <f>CONFIDENCE(0.05,H23,COUNT(H2:H19))</f>
+        <v>0.65332132818001787</v>
+      </c>
+      <c r="I24">
+        <f>CONFIDENCE(0.05,I23,COUNT(I2:I19))</f>
+        <v>0.21777377606000595</v>
+      </c>
       <c r="L24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="AC24" s="18">
+      <c r="AC24" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD24" s="19">
+      <c r="AD24" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O25" s="1"/>
-      <c r="AC25" s="18">
+      <c r="AC25" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD25" s="19">
+      <c r="AD25" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O26" s="1"/>
-      <c r="AC26" s="18">
+      <c r="AC26" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD26" s="19">
+      <c r="AD26" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O27" s="1"/>
-      <c r="AC27" s="18">
+      <c r="AC27" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD27" s="19">
+      <c r="AD27" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O28" s="1"/>
-      <c r="AC28" s="18">
+      <c r="AC28" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD28" s="19">
+      <c r="AD28" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O29" s="1"/>
-      <c r="AC29" s="18">
+      <c r="AC29" s="17">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD29" s="19">
+      <c r="AD29" s="18">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -13914,18 +17804,18 @@
     </row>
     <row r="39" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z40" t="str">
-        <f>_xlfn.CONCAT("Average: ", ROUND(INDEX(N2:N19,MATCH(1E+100,I2:I19,1)), 2), " hrs/week")</f>
-        <v>Average: 19.46 hrs/week</v>
+        <f>_xlfn.CONCAT("Average PQO: ", ROUND(INDEX(N2:N19,MATCH(1E+100,I2:I19,1)), 2), "%")</f>
+        <v>Average PQO: 19.46%</v>
       </c>
     </row>
     <row r="41" spans="26:26" x14ac:dyDescent="0.25">
       <c r="Z41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="26:26" ht="60" x14ac:dyDescent="0.25">
@@ -13933,7 +17823,7 @@
         <f>_xlfn.TEXTJOIN(CHAR(10), FALSE, Z38:Z41)</f>
         <v>Average: 39.78 hrs/week
 Objective: 40 hrs/week (5 day x 8 hrs)
-Average: 19.46 hrs/week
+Average PQO: 19.46%
 Objective PQO: 60% of total hours</v>
       </c>
     </row>
@@ -13948,63 +17838,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD9EA836-7BD1-4E2A-95D3-0F30C78E89D8}">
   <dimension ref="A1:S44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="14" max="14" width="13.7109375" customWidth="1"/>
     <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>58</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>60</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
@@ -14014,31 +17905,31 @@
       <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="36">
         <f>AVERAGE('Fall 2019'!$J$2:$J$6)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="K2" s="35">
+      <c r="K2" s="34">
         <f>AVERAGE('Fall 2019'!$J$7:$J$11)</f>
         <v>47.4</v>
       </c>
-      <c r="L2" s="35">
+      <c r="L2" s="34">
         <f>AVERAGE('Fall 2019'!$J$12:$J$15)</f>
         <v>38</v>
       </c>
-      <c r="M2" s="36">
+      <c r="M2" s="35">
         <f>AVERAGE('Fall 2019'!$J$16:$J$19)</f>
         <v>28.375</v>
       </c>
-      <c r="N2" s="38">
+      <c r="N2" s="37">
         <f t="shared" ref="N2:N6" si="0">AVERAGE(B2:M2)</f>
         <v>38.243749999999999</v>
       </c>
@@ -14051,49 +17942,49 @@
         <v>7.6372180878758833</v>
       </c>
       <c r="Q2" s="4"/>
-      <c r="S2" s="27"/>
+      <c r="S2" s="26"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="34">
         <f>AVERAGE('Winter 2020'!$J$2:$J$6)</f>
         <v>31.1</v>
       </c>
-      <c r="C3" s="34">
+      <c r="C3" s="33">
         <f>AVERAGE('Winter 2020'!$J$7:$J$10)</f>
         <v>38.25</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <f>AVERAGE('Winter 2020'!$J$11:$J$14)</f>
         <v>21.25</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="35">
         <f>AVERAGE('Winter 2020'!$J$15:$J$19)</f>
         <v>22.3</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="36">
         <f>AVERAGE('Summer 2020'!$J$2:$J$5)</f>
         <v>41.75</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="34">
         <f>AVERAGE('Summer 2020'!$J$6:$J$9)</f>
         <v>38.75</v>
       </c>
-      <c r="H3" s="35">
+      <c r="H3" s="34">
         <f>AVERAGE('Summer 2020'!$J$10:$J$14)</f>
         <v>7.2</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="35">
         <f>AVERAGE('Summer 2020'!$J$15:$J$18)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="38">
+      <c r="J3" s="36"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="37">
         <f t="shared" si="0"/>
         <v>25.074999999999996</v>
       </c>
@@ -14106,25 +17997,25 @@
         <v>10.624511211529349</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="S3" s="27"/>
+      <c r="S3" s="26"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="38" t="e">
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="37" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -14137,25 +18028,25 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q4" s="4"/>
-      <c r="S4" s="27"/>
+      <c r="S4" s="26"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="38" t="e">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="37" t="e">
         <f>AVERAGE(B5:M5)</f>
         <v>#DIV/0!</v>
       </c>
@@ -14168,129 +18059,129 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q5" s="4"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="28"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="39">
+        <v>64</v>
+      </c>
+      <c r="B6" s="38">
         <f t="shared" ref="B6:M6" si="3">AVERAGE(B2:B4)</f>
         <v>31.1</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="38">
         <f t="shared" si="3"/>
         <v>38.25</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="38">
         <f t="shared" si="3"/>
         <v>21.25</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="39">
         <f t="shared" si="3"/>
         <v>22.3</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="38">
         <f t="shared" si="3"/>
         <v>41.75</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <f t="shared" si="3"/>
         <v>38.75</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="38">
         <f t="shared" si="3"/>
         <v>39.200000000000003</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="38">
         <f t="shared" si="3"/>
         <v>47.4</v>
       </c>
-      <c r="L6" s="39">
+      <c r="L6" s="38">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="39">
         <f t="shared" si="3"/>
         <v>28.375</v>
       </c>
-      <c r="N6" s="39">
+      <c r="N6" s="38">
         <f t="shared" si="0"/>
         <v>29.464583333333326</v>
       </c>
-      <c r="O6" s="30">
+      <c r="O6" s="29">
         <f t="shared" si="1"/>
         <v>14.429107491193783</v>
       </c>
-      <c r="P6" s="30">
+      <c r="P6" s="29">
         <f t="shared" si="2"/>
         <v>8.1638860962432513</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="S6" s="31"/>
+      <c r="Q6" s="16"/>
+      <c r="S6" s="30"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="35" t="e">
+        <v>62</v>
+      </c>
+      <c r="B7" s="34" t="e">
         <f t="shared" ref="B7:M7" si="4">STDEV(B2:B4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C7" s="35" t="e">
+      <c r="C7" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D7" s="35" t="e">
+      <c r="D7" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E7" s="36" t="e">
+      <c r="E7" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="35" t="e">
+      <c r="F7" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="35" t="e">
+      <c r="G7" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="35" t="e">
+      <c r="H7" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="36" t="e">
+      <c r="I7" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="35" t="e">
+      <c r="J7" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="35" t="e">
+      <c r="K7" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="35" t="e">
+      <c r="L7" s="34" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="36" t="e">
+      <c r="M7" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="35" t="e">
+      <c r="N7" s="34" t="e">
         <f>STDEV(N2:N2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -14299,59 +18190,79 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="32" t="e">
+        <v>63</v>
+      </c>
+      <c r="B8" s="31" t="e">
         <f t="shared" ref="B8:M8" si="5">CONFIDENCE(0.05,B7,COUNT(B2:B4))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C8" s="32" t="e">
+      <c r="C8" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D8" s="32" t="e">
+      <c r="D8" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="33" t="e">
+      <c r="E8" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="32" t="e">
+      <c r="F8" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="32" t="e">
+      <c r="G8" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="32" t="e">
+      <c r="H8" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="33" t="e">
+      <c r="I8" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="32" t="e">
+      <c r="J8" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="32" t="e">
+      <c r="K8" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="32" t="e">
+      <c r="L8" s="31" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="33" t="e">
+      <c r="M8" s="32" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="32" t="e">
+      <c r="N8" s="31" t="e">
         <f>CONFIDENCE(0.05,N7,COUNT(N2:N3))</f>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="13:13" x14ac:dyDescent="0.25">

--- a/static/work-tracker_advanced.xlsx
+++ b/static/work-tracker_advanced.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - UQAM\Personnel\Sérieux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\starter-academic\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD60D191-2065-4205-B804-662A10826288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFC76EB-0627-4756-90B2-23A3C7BE8250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="717" activeTab="3" xr2:uid="{4E48D71A-11A8-48A3-A37D-9541A381940A}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="13" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Summer 2020" sheetId="11" r:id="rId4"/>
     <sheet name="Across years" sheetId="14" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -481,7 +478,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -489,9 +486,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -521,13 +515,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
@@ -4483,31 +4474,31 @@
                   <c:v>19.459646892183073</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>17.513682202964766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>15.921529275422513</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>14.594735169137305</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>13.47206323304982</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>12.509773002117688</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>11.675788135309844</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>10.946051376852978</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>10.302166001743979</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>9.7298234460915367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13021,121 +13012,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Fall 2017"/>
-      <sheetName val="Winter 2018"/>
-      <sheetName val="Summer 2018"/>
-      <sheetName val="Fall 2018"/>
-      <sheetName val="Winter 2019"/>
-      <sheetName val="Summer 2019"/>
-      <sheetName val="Fall 2019"/>
-      <sheetName val="Winter 2020"/>
-      <sheetName val="Summer 2020"/>
-      <sheetName val="Fall 2020"/>
-      <sheetName val="Winter 2021"/>
-      <sheetName val="Summer 2021"/>
-      <sheetName val="Fall 2021"/>
-      <sheetName val="Winter 2022"/>
-      <sheetName val="Across years"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13">
-        <row r="21">
-          <cell r="C21">
-            <v>6.25</v>
-          </cell>
-          <cell r="D21">
-            <v>4.625</v>
-          </cell>
-          <cell r="E21">
-            <v>5.666666666666667</v>
-          </cell>
-          <cell r="F21">
-            <v>7.125</v>
-          </cell>
-          <cell r="G21">
-            <v>3.375</v>
-          </cell>
-          <cell r="H21">
-            <v>4.583333333333333</v>
-          </cell>
-          <cell r="I21">
-            <v>5.291666666666667</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>0.84007294236794172</v>
-          </cell>
-          <cell r="D23">
-            <v>0.87090174668636888</v>
-          </cell>
-          <cell r="E23">
-            <v>1.0811700871311494</v>
-          </cell>
-          <cell r="F23">
-            <v>0.73498649420252016</v>
-          </cell>
-          <cell r="G23">
-            <v>1.1451668467412159</v>
-          </cell>
-          <cell r="H23">
-            <v>1.4863794450201808</v>
-          </cell>
-          <cell r="I23">
-            <v>1.7582596623371407</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>Monday</v>
-          </cell>
-          <cell r="D24" t="str">
-            <v>Tuesday</v>
-          </cell>
-          <cell r="E24" t="str">
-            <v>Wednesday</v>
-          </cell>
-          <cell r="F24" t="str">
-            <v>Thursday</v>
-          </cell>
-          <cell r="G24" t="str">
-            <v>Friday</v>
-          </cell>
-          <cell r="H24" t="str">
-            <v>Saturday</v>
-          </cell>
-          <cell r="I24" t="str">
-            <v>Sunday</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -13173,7 +13053,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -13279,7 +13159,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -13421,7 +13301,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -13431,7 +13311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B6FE27-0780-44AF-82FB-9A1F916D752A}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
@@ -13441,7 +13321,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -13521,111 +13401,111 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -13636,7 +13516,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="16" t="s">
         <v>35</v>
       </c>
     </row>
@@ -13649,7 +13529,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -13669,7 +13549,7 @@
   <dimension ref="A1:AD78"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13717,86 +13597,86 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>43703</v>
       </c>
-      <c r="B2" s="16" t="str">
+      <c r="B2" s="13" t="str">
         <f>CONCATENATE("Week 1 (", TEXT(A2,"MMM D"), ")")</f>
         <v>Week 1 (Aug 26)</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>5.5</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>8</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="13">
         <v>0.5</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="13">
         <v>0</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="13">
         <v>0</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="13">
         <v>2.5</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="9">
         <f t="shared" ref="J2:J18" si="0">SUM(C2:I2)</f>
         <v>16.5</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="10">
         <f>AVERAGE(J2:J2)</f>
         <v>16.5</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="20">
         <v>7.5</v>
       </c>
-      <c r="M2" s="24">
-        <f t="shared" ref="M2:M19" si="1">L2/J2</f>
+      <c r="M2" s="21">
+        <f>IF(J2,L2/J2,0)</f>
         <v>0.45454545454545453</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="22">
         <f>AVERAGE(M$2:M2)*100</f>
         <v>45.454545454545453</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="AC2" s="11">
+      <c r="AC2" s="8">
         <v>45</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AD2" s="8">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <f>A2+7</f>
         <v>43710</v>
       </c>
@@ -13825,37 +13705,37 @@
       <c r="I3">
         <v>3.5</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <f>AVERAGE(J$2:J3)</f>
         <v>32.25</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="20">
         <v>9.5</v>
       </c>
-      <c r="M3" s="24">
-        <f t="shared" si="1"/>
+      <c r="M3" s="21">
+        <f t="shared" ref="M3:M19" si="1">IF(J3,L3/J3,0)</f>
         <v>0.19791666666666666</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="22">
         <f>AVERAGE(M$2:M3)*100</f>
         <v>32.623106060606062</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="AC3" s="17">
+      <c r="AC3" s="14">
         <f>AC2</f>
         <v>45</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="15">
         <f>AD2</f>
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <f t="shared" ref="A4:A19" si="2">A3+7</f>
         <v>43717</v>
       </c>
@@ -13884,37 +13764,37 @@
       <c r="I4">
         <v>6</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="10">
         <f>AVERAGE(J$2:J4)</f>
         <v>38.333333333333336</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="20">
         <v>16.5</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="21">
         <f t="shared" si="1"/>
         <v>0.32673267326732675</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="22">
         <f>AVERAGE(M$2:M4)*100</f>
         <v>32.639826482648267</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="14">
         <f t="shared" ref="AC4:AC29" si="3">AC3</f>
         <v>45</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="15">
         <f t="shared" ref="AD4:AD29" si="4">AD3</f>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>43724</v>
       </c>
@@ -13943,37 +13823,37 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="10">
         <f>AVERAGE(J$2:J5)</f>
         <v>40</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="20">
         <v>6</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="21">
         <f t="shared" si="1"/>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="22">
         <f>AVERAGE(M$2:M5)*100</f>
         <v>27.813203195319531</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="AC5" s="17">
+      <c r="AC5" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>43731</v>
       </c>
@@ -14002,37 +13882,37 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="10">
         <f>AVERAGE(J$2:J6)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <v>7.5</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="21">
         <f t="shared" si="1"/>
         <v>0.20833333333333334</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="22">
         <f>AVERAGE(M$2:M6)*100</f>
         <v>26.417229222922288</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="AC6" s="17">
+      <c r="AC6" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AD6" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>43738</v>
       </c>
@@ -14061,37 +13941,37 @@
       <c r="I7">
         <v>2.5</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="9">
         <f t="shared" si="0"/>
         <v>60.5</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="10">
         <f>AVERAGE(J$2:J7)</f>
         <v>42.75</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="20">
         <v>3</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="21">
         <f t="shared" si="1"/>
         <v>4.9586776859504134E-2</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="22">
         <f>AVERAGE(M$2:M7)*100</f>
         <v>22.840803966760312</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="AC7" s="17">
+      <c r="AC7" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>43745</v>
       </c>
@@ -14120,37 +14000,37 @@
       <c r="I8">
         <v>4.5</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="9">
         <f t="shared" si="0"/>
         <v>46.5</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="10">
         <f>AVERAGE(J$2:J8)</f>
         <v>43.285714285714285</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="20">
         <v>0</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="22">
         <f>AVERAGE(M$2:M8)*100</f>
         <v>19.577831971508839</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="AC8" s="17">
+      <c r="AC8" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>43752</v>
       </c>
@@ -14179,37 +14059,37 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="9">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="10">
         <f>AVERAGE(J$2:J9)</f>
         <v>43.5</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <v>10</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="21">
         <f t="shared" si="1"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="22">
         <f>AVERAGE(M$2:M9)*100</f>
         <v>19.908380752848011</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AD9" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>43759</v>
       </c>
@@ -14238,37 +14118,37 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="9">
         <f t="shared" si="0"/>
         <v>50.5</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="10">
         <f>AVERAGE(J$2:J10)</f>
         <v>44.277777777777779</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <v>8</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="21">
         <f t="shared" si="1"/>
         <v>0.15841584158415842</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="22">
         <f>AVERAGE(M$2:M10)*100</f>
         <v>19.456514464577769</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="AC10" s="17">
+      <c r="AC10" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD10" s="18">
+      <c r="AD10" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>43766</v>
       </c>
@@ -14297,37 +14177,37 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="9">
         <f t="shared" si="0"/>
         <v>34.5</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="10">
         <f>AVERAGE(J$2:J11)</f>
         <v>43.3</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="20">
         <v>9.5</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="21">
         <f t="shared" si="1"/>
         <v>0.27536231884057971</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="22">
         <f>AVERAGE(M$2:M11)*100</f>
         <v>20.264486206525788</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="AC11" s="17">
+      <c r="AC11" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AD11" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>43773</v>
       </c>
@@ -14356,37 +14236,37 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="9">
         <f t="shared" si="0"/>
         <v>31.5</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="10">
         <f>AVERAGE(J$2:J12)</f>
         <v>42.227272727272727</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="20">
         <v>14</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="21">
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="22">
         <f>AVERAGE(M$2:M12)*100</f>
         <v>22.462664228154754</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="AC12" s="17">
+      <c r="AC12" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD12" s="18">
+      <c r="AD12" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>43780</v>
       </c>
@@ -14415,37 +14295,37 @@
       <c r="I13">
         <v>4</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="9">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="10">
         <f>AVERAGE(J$2:J13)</f>
         <v>43.041666666666664</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="20">
         <v>26</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="21">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="22">
         <f>AVERAGE(M$2:M13)*100</f>
         <v>24.757442209141857</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="AC13" s="17">
+      <c r="AC13" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD13" s="18">
+      <c r="AD13" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>43787</v>
       </c>
@@ -14474,37 +14354,37 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="10">
         <f>AVERAGE(J$2:J14)</f>
         <v>41.96153846153846</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="20">
         <v>3</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="21">
         <f t="shared" si="1"/>
         <v>0.10344827586206896</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="22">
         <f>AVERAGE(M$2:M14)*100</f>
         <v>23.648779545839169</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="AC14" s="17">
+      <c r="AC14" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD14" s="18">
+      <c r="AD14" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>43794</v>
       </c>
@@ -14533,37 +14413,37 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="9">
         <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="10">
         <f>AVERAGE(J$2:J15)</f>
         <v>41.785714285714285</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="20">
         <v>0</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="22">
         <f>AVERAGE(M$2:M15)*100</f>
         <v>21.959581006850655</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="AC15" s="17">
+      <c r="AC15" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD15" s="18">
+      <c r="AD15" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <f t="shared" si="2"/>
         <v>43801</v>
       </c>
@@ -14592,37 +14472,37 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="9">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="10">
         <f>AVERAGE(J$2:J16)</f>
         <v>41.866666666666667</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="20">
         <v>10</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="21">
         <f t="shared" si="1"/>
         <v>0.23255813953488372</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="22">
         <f>AVERAGE(M$2:M16)*100</f>
         <v>22.045996536626504</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="AC16" s="17">
+      <c r="AC16" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD16" s="18">
+      <c r="AD16" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <f t="shared" si="2"/>
         <v>43808</v>
       </c>
@@ -14651,37 +14531,37 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="9">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
         <f>AVERAGE(J$2:J17)</f>
         <v>41.34375</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="20">
         <v>8</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="21">
         <f t="shared" si="1"/>
         <v>0.23880597014925373</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="22">
         <f>AVERAGE(M$2:M17)*100</f>
         <v>22.160659066520182</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="AC17" s="17">
+      <c r="AC17" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD17" s="18">
+      <c r="AD17" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <f t="shared" si="2"/>
         <v>43815</v>
       </c>
@@ -14710,37 +14590,37 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="10">
         <f>AVERAGE(J$2:J18)</f>
         <v>41.029411764705884</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="20">
         <v>9.5</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="21">
         <f t="shared" si="1"/>
         <v>0.2638888888888889</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="22">
         <f>AVERAGE(M$2:M18)*100</f>
         <v>22.409378467835989</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="AC18" s="17">
+      <c r="AC18" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD18" s="18">
+      <c r="AD18" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>43822</v>
       </c>
@@ -14769,69 +14649,69 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="9">
         <f>SUM(C19:I19)</f>
         <v>1</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="10">
         <f>AVERAGE(J$2:J19)</f>
         <v>38.805555555555557</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="20">
         <v>1</v>
       </c>
-      <c r="M19" s="24">
-        <f t="shared" si="1"/>
+      <c r="M19" s="21">
+        <f>IF(J19,L19/J19,0)</f>
         <v>1</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="22">
         <f>AVERAGE(M$2:M19)*100</f>
         <v>26.719968552956214</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD19" s="18">
+      <c r="AD19" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="1"/>
-      <c r="AC20" s="17">
+      <c r="AC20" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD20" s="18">
+      <c r="AD20" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -14842,11 +14722,11 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="AC21" s="17">
+      <c r="AC21" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AD21" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -14856,42 +14736,42 @@
         <v>64</v>
       </c>
       <c r="C22">
-        <f>AVERAGE(C2:C19)</f>
+        <f t="shared" ref="C22:I22" si="5">AVERAGE(C2:C19)</f>
         <v>4.7777777777777777</v>
       </c>
       <c r="D22">
-        <f>AVERAGE(D2:D19)</f>
+        <f t="shared" si="5"/>
         <v>8.4722222222222214</v>
       </c>
       <c r="E22">
-        <f>AVERAGE(E2:E19)</f>
+        <f t="shared" si="5"/>
         <v>5.6388888888888893</v>
       </c>
       <c r="F22">
-        <f>AVERAGE(F2:F19)</f>
+        <f t="shared" si="5"/>
         <v>7.7222222222222223</v>
       </c>
       <c r="G22">
-        <f>AVERAGE(G2:G19)</f>
+        <f t="shared" si="5"/>
         <v>7.9722222222222223</v>
       </c>
       <c r="H22">
-        <f>AVERAGE(H2:H19)</f>
+        <f t="shared" si="5"/>
         <v>2.7777777777777777</v>
       </c>
       <c r="I22">
-        <f>AVERAGE(I2:I19)</f>
+        <f t="shared" si="5"/>
         <v>1.4444444444444444</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="AC22" s="17">
+      <c r="AC22" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AD22" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -14901,31 +14781,31 @@
         <v>62</v>
       </c>
       <c r="C23" s="1">
-        <f>STDEV(C2:C20)</f>
+        <f t="shared" ref="C23:I23" si="6">STDEV(C2:C20)</f>
         <v>2.707409344646118</v>
       </c>
       <c r="D23" s="1">
-        <f>STDEV(D2:D20)</f>
+        <f t="shared" si="6"/>
         <v>2.8308812919105044</v>
       </c>
       <c r="E23" s="1">
-        <f>STDEV(E2:E20)</f>
+        <f t="shared" si="6"/>
         <v>2.4543212524968117</v>
       </c>
       <c r="F23" s="1">
-        <f>STDEV(F2:F20)</f>
+        <f t="shared" si="6"/>
         <v>3.4862006211980727</v>
       </c>
       <c r="G23" s="1">
-        <f>STDEV(G2:G20)</f>
+        <f t="shared" si="6"/>
         <v>4.0310275373080682</v>
       </c>
       <c r="H23" s="1">
-        <f>STDEV(H2:H20)</f>
+        <f t="shared" si="6"/>
         <v>4.0916781478214386</v>
       </c>
       <c r="I23" s="1">
-        <f>STDEV(I2:I20)</f>
+        <f t="shared" si="6"/>
         <v>1.9165600993392002</v>
       </c>
       <c r="K23" s="1"/>
@@ -14933,11 +14813,11 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="AC23" s="17">
+      <c r="AC23" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD23" s="18">
+      <c r="AD23" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -14947,95 +14827,95 @@
         <v>63</v>
       </c>
       <c r="C24">
-        <f>CONFIDENCE(0.05,C23,COUNT(C2:C19))</f>
+        <f t="shared" ref="C24:I24" si="7">CONFIDENCE(0.05,C23,COUNT(C2:C19))</f>
         <v>1.2507363216083698</v>
       </c>
       <c r="D24">
-        <f>CONFIDENCE(0.05,D23,COUNT(D2:D19))</f>
+        <f t="shared" si="7"/>
         <v>1.3077764029129082</v>
       </c>
       <c r="E24">
-        <f>CONFIDENCE(0.05,E23,COUNT(E2:E19))</f>
+        <f t="shared" si="7"/>
         <v>1.133817736672674</v>
       </c>
       <c r="F24">
-        <f>CONFIDENCE(0.05,F23,COUNT(F2:F19))</f>
+        <f t="shared" si="7"/>
         <v>1.6105129244562102</v>
       </c>
       <c r="G24">
-        <f>CONFIDENCE(0.05,G23,COUNT(G2:G19))</f>
+        <f t="shared" si="7"/>
         <v>1.8622054933380381</v>
       </c>
       <c r="H24">
-        <f>CONFIDENCE(0.05,H23,COUNT(H2:H19))</f>
+        <f t="shared" si="7"/>
         <v>1.8902241310245791</v>
       </c>
       <c r="I24">
-        <f>CONFIDENCE(0.05,I23,COUNT(I2:I19))</f>
+        <f t="shared" si="7"/>
         <v>0.88538932375673185</v>
       </c>
       <c r="L24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD24" s="18">
+      <c r="AD24" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O25" s="1"/>
-      <c r="AC25" s="17">
+      <c r="AC25" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD25" s="18">
+      <c r="AD25" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O26" s="1"/>
-      <c r="AC26" s="17">
+      <c r="AC26" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD26" s="18">
+      <c r="AD26" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O27" s="1"/>
-      <c r="AC27" s="17">
+      <c r="AC27" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD27" s="18">
+      <c r="AD27" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O28" s="1"/>
-      <c r="AC28" s="17">
+      <c r="AC28" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD28" s="18">
+      <c r="AD28" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O29" s="1"/>
-      <c r="AC29" s="17">
+      <c r="AC29" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD29" s="18">
+      <c r="AD29" s="15">
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
@@ -15187,7 +15067,7 @@
   <dimension ref="A1:AD43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15234,86 +15114,86 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>43829</v>
       </c>
-      <c r="B2" s="16" t="str">
+      <c r="B2" s="13" t="str">
         <f>CONCATENATE("Week 1 (", TEXT(A2,"MMM D"), ")")</f>
         <v>Week 1 (Dec 30)</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>0</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="13">
         <v>0</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="13">
         <v>4</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="13">
         <v>0</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="13">
         <v>0</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="9">
         <f t="shared" ref="J2:J18" si="0">SUM(C2:I2)</f>
         <v>4</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="10">
         <f>AVERAGE(J2:J2)</f>
         <v>4</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="20">
         <v>2</v>
       </c>
-      <c r="M2" s="24">
-        <f t="shared" ref="M2:M19" si="1">L2/J2</f>
+      <c r="M2" s="21">
+        <f>IF(J2,L2/J2,0)</f>
         <v>0.5</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="22">
         <f>AVERAGE(M$2:M2)*100</f>
         <v>50</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="AC2" s="11">
+      <c r="AC2" s="8">
         <v>45</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AD2" s="8">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <f>A2+7</f>
         <v>43836</v>
       </c>
@@ -15342,37 +15222,37 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="9">
         <f t="shared" si="0"/>
         <v>36.5</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <f>AVERAGE(J$2:J3)</f>
         <v>20.25</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="20">
         <v>9.5</v>
       </c>
-      <c r="M3" s="24">
-        <f t="shared" si="1"/>
+      <c r="M3" s="21">
+        <f t="shared" ref="M3:M19" si="1">IF(J3,L3/J3,0)</f>
         <v>0.26027397260273971</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="22">
         <f>AVERAGE(M$2:M3)*100</f>
         <v>38.013698630136986</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="AC3" s="17">
+      <c r="AC3" s="14">
         <f>AC2</f>
         <v>45</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="15">
         <f>AD2</f>
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <f t="shared" ref="A4:A19" si="2">A3+7</f>
         <v>43843</v>
       </c>
@@ -15401,37 +15281,37 @@
       <c r="I4">
         <v>0</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <f t="shared" si="0"/>
         <v>35.5</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="10">
         <f>AVERAGE(J$2:J4)</f>
         <v>25.333333333333332</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="20">
         <v>16.5</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="21">
         <f t="shared" si="1"/>
         <v>0.46478873239436619</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="22">
         <f>AVERAGE(M$2:M4)*100</f>
         <v>40.835423499903527</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="14">
         <f t="shared" ref="AC4:AD29" si="3">AC3</f>
         <v>45</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>43850</v>
       </c>
@@ -15460,37 +15340,37 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="9">
         <f t="shared" si="0"/>
         <v>39.5</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="10">
         <f>AVERAGE(J$2:J5)</f>
         <v>28.875</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="20">
         <v>6</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="21">
         <f t="shared" si="1"/>
         <v>0.15189873417721519</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="22">
         <f>AVERAGE(M$2:M5)*100</f>
         <v>34.424035979358024</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="AC5" s="17">
+      <c r="AC5" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>43857</v>
       </c>
@@ -15519,37 +15399,37 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="9">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="10">
         <f>AVERAGE(J$2:J6)</f>
         <v>31.1</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <v>7.5</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="21">
         <f t="shared" si="1"/>
         <v>0.1875</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="22">
         <f>AVERAGE(M$2:M6)*100</f>
         <v>31.289228783486422</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="AC6" s="17">
+      <c r="AC6" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AD6" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>43864</v>
       </c>
@@ -15578,37 +15458,37 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="10">
         <f>AVERAGE(J$2:J7)</f>
         <v>31.083333333333332</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="20">
         <v>3</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="21">
         <f t="shared" si="1"/>
         <v>9.6774193548387094E-2</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="22">
         <f>AVERAGE(M$2:M7)*100</f>
         <v>27.687260545378468</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="AC7" s="17">
+      <c r="AC7" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>43871</v>
       </c>
@@ -15637,37 +15517,37 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="9">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="10">
         <f>AVERAGE(J$2:J8)</f>
         <v>32.642857142857146</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="20">
         <v>0</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="22">
         <f>AVERAGE(M$2:M8)*100</f>
         <v>23.731937610324401</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="AC8" s="17">
+      <c r="AC8" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>43878</v>
       </c>
@@ -15696,37 +15576,37 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="9">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="10">
         <f>AVERAGE(J$2:J9)</f>
         <v>33.25</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <v>10</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="21">
         <f t="shared" si="1"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="22">
         <f>AVERAGE(M$2:M9)*100</f>
         <v>24.098778742367184</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AD9" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>43885</v>
       </c>
@@ -15755,37 +15635,37 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="9">
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="10">
         <f>AVERAGE(J$2:J10)</f>
         <v>34.277777777777779</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <v>8</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="21">
         <f t="shared" si="1"/>
         <v>0.18823529411764706</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="22">
         <f>AVERAGE(M$2:M10)*100</f>
         <v>23.512639927855794</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="AC10" s="17">
+      <c r="AC10" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD10" s="18">
+      <c r="AD10" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>43892</v>
       </c>
@@ -15814,37 +15694,37 @@
       <c r="I11">
         <v>0</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="10">
         <f>AVERAGE(J$2:J11)</f>
         <v>34.15</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="20">
         <v>9.5</v>
       </c>
-      <c r="M11" s="24">
+      <c r="M11" s="21">
         <f t="shared" si="1"/>
         <v>0.2878787878787879</v>
       </c>
-      <c r="N11" s="25">
+      <c r="N11" s="22">
         <f>AVERAGE(M$2:M11)*100</f>
         <v>24.040163813858094</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="AC11" s="17">
+      <c r="AC11" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AD11" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>43899</v>
       </c>
@@ -15873,37 +15753,37 @@
       <c r="I12">
         <v>0</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="9">
         <f t="shared" si="0"/>
         <v>22.5</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="10">
         <f>AVERAGE(J$2:J12)</f>
         <v>33.090909090909093</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="20">
         <v>14</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="21">
         <f t="shared" si="1"/>
         <v>0.62222222222222223</v>
       </c>
-      <c r="N12" s="25">
+      <c r="N12" s="22">
         <f>AVERAGE(M$2:M12)*100</f>
         <v>27.511260032800287</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="AC12" s="17">
+      <c r="AC12" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD12" s="18">
+      <c r="AD12" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>43906</v>
       </c>
@@ -15932,37 +15812,37 @@
       <c r="I13">
         <v>0</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="9">
         <f t="shared" si="0"/>
         <v>8.5</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="10">
         <f>AVERAGE(J$2:J13)</f>
         <v>31.041666666666668</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="20">
         <v>26</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="21">
         <f t="shared" si="1"/>
         <v>3.0588235294117645</v>
       </c>
-      <c r="N13" s="25">
+      <c r="N13" s="22">
         <f>AVERAGE(M$2:M13)*100</f>
         <v>50.708851108498308</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="AC13" s="17">
+      <c r="AC13" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD13" s="18">
+      <c r="AD13" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>43913</v>
       </c>
@@ -15991,37 +15871,37 @@
       <c r="I14">
         <v>0</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="10">
         <f>AVERAGE(J$2:J14)</f>
         <v>30.26923076923077</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="20">
         <v>3</v>
       </c>
-      <c r="M14" s="24">
+      <c r="M14" s="21">
         <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="N14" s="25">
+      <c r="N14" s="22">
         <f>AVERAGE(M$2:M14)*100</f>
         <v>47.907071352899536</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="AC14" s="17">
+      <c r="AC14" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD14" s="18">
+      <c r="AD14" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>43920</v>
       </c>
@@ -16050,37 +15930,37 @@
       <c r="I15">
         <v>0</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="10">
         <f>AVERAGE(J$2:J15)</f>
         <v>29.964285714285715</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="20">
         <v>0</v>
       </c>
-      <c r="M15" s="24">
+      <c r="M15" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="22">
         <f>AVERAGE(M$2:M15)*100</f>
         <v>44.485137684835287</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="AC15" s="17">
+      <c r="AC15" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD15" s="18">
+      <c r="AD15" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <f t="shared" si="2"/>
         <v>43927</v>
       </c>
@@ -16109,37 +15989,37 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="9">
         <f t="shared" si="0"/>
         <v>25.5</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="10">
         <f>AVERAGE(J$2:J16)</f>
         <v>29.666666666666668</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="20">
         <v>10</v>
       </c>
-      <c r="M16" s="24">
+      <c r="M16" s="21">
         <f t="shared" si="1"/>
         <v>0.39215686274509803</v>
       </c>
-      <c r="N16" s="25">
+      <c r="N16" s="22">
         <f>AVERAGE(M$2:M16)*100</f>
         <v>44.133840924146924</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="AC16" s="17">
+      <c r="AC16" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD16" s="18">
+      <c r="AD16" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <f t="shared" si="2"/>
         <v>43934</v>
       </c>
@@ -16168,37 +16048,37 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="9">
         <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
         <f>AVERAGE(J$2:J17)</f>
         <v>28.71875</v>
       </c>
-      <c r="L17" s="23">
+      <c r="L17" s="20">
         <v>8</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="21">
         <f t="shared" si="1"/>
         <v>0.55172413793103448</v>
       </c>
-      <c r="N17" s="25">
+      <c r="N17" s="22">
         <f>AVERAGE(M$2:M17)*100</f>
         <v>44.823751728456706</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="AC17" s="17">
+      <c r="AC17" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD17" s="18">
+      <c r="AD17" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <f t="shared" si="2"/>
         <v>43941</v>
       </c>
@@ -16227,37 +16107,37 @@
       <c r="I18">
         <v>0</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="9">
         <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="10">
         <f>AVERAGE(J$2:J18)</f>
         <v>28.470588235294116</v>
       </c>
-      <c r="L18" s="23">
+      <c r="L18" s="20">
         <v>9.5</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M18" s="21">
         <f t="shared" si="1"/>
         <v>0.38775510204081631</v>
       </c>
-      <c r="N18" s="25">
+      <c r="N18" s="22">
         <f>AVERAGE(M$2:M18)*100</f>
         <v>44.467972815258172</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="AC18" s="17">
+      <c r="AC18" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD18" s="18">
+      <c r="AD18" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>43948</v>
       </c>
@@ -16286,56 +16166,56 @@
       <c r="I19">
         <v>0</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="9">
         <f>SUM(C19:I19)</f>
         <v>21</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="10">
         <f>AVERAGE(J$2:J19)</f>
         <v>28.055555555555557</v>
       </c>
-      <c r="L19" s="23">
+      <c r="L19" s="20">
         <v>1</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="21">
         <f t="shared" si="1"/>
         <v>4.7619047619047616E-2</v>
       </c>
-      <c r="N19" s="25">
+      <c r="N19" s="22">
         <f>AVERAGE(M$2:M19)*100</f>
         <v>42.262080145627422</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD19" s="18">
+      <c r="AD19" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="34" t="s">
         <v>6</v>
       </c>
       <c r="J20" s="3"/>
@@ -16344,11 +16224,11 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="1"/>
-      <c r="AC20" s="17">
+      <c r="AC20" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD20" s="18">
+      <c r="AD20" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -16359,11 +16239,11 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="AC21" s="17">
+      <c r="AC21" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AD21" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -16373,42 +16253,42 @@
         <v>64</v>
       </c>
       <c r="C22">
-        <f>AVERAGE(C2:C19)</f>
+        <f t="shared" ref="C22:I22" si="4">AVERAGE(C2:C19)</f>
         <v>4.1944444444444446</v>
       </c>
       <c r="D22">
-        <f>AVERAGE(D2:D19)</f>
+        <f t="shared" si="4"/>
         <v>6.3611111111111107</v>
       </c>
       <c r="E22">
-        <f>AVERAGE(E2:E19)</f>
+        <f t="shared" si="4"/>
         <v>4.8888888888888893</v>
       </c>
       <c r="F22">
-        <f>AVERAGE(F2:F19)</f>
+        <f t="shared" si="4"/>
         <v>6.5555555555555554</v>
       </c>
       <c r="G22">
-        <f>AVERAGE(G2:G19)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="H22">
-        <f>AVERAGE(H2:H19)</f>
+        <f t="shared" si="4"/>
         <v>5.5555555555555552E-2</v>
       </c>
       <c r="I22">
-        <f>AVERAGE(I2:I19)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="AC22" s="17">
+      <c r="AC22" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AD22" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -16418,31 +16298,31 @@
         <v>62</v>
       </c>
       <c r="C23" s="1">
-        <f>STDEV(C2:C20)</f>
+        <f t="shared" ref="C23:I23" si="5">STDEV(C2:C20)</f>
         <v>2.717800196573827</v>
       </c>
       <c r="D23" s="1">
-        <f>STDEV(D2:D20)</f>
+        <f t="shared" si="5"/>
         <v>3.3772837831064759</v>
       </c>
       <c r="E23" s="1">
-        <f>STDEV(E2:E20)</f>
+        <f t="shared" si="5"/>
         <v>3.0076156060884722</v>
       </c>
       <c r="F23" s="1">
-        <f>STDEV(F2:F20)</f>
+        <f t="shared" si="5"/>
         <v>3.6456617606687836</v>
       </c>
       <c r="G23" s="1">
-        <f>STDEV(G2:G20)</f>
+        <f t="shared" si="5"/>
         <v>2.3326329481056884</v>
       </c>
       <c r="H23" s="1">
-        <f>STDEV(H2:H20)</f>
+        <f t="shared" si="5"/>
         <v>0.23570226039551584</v>
       </c>
       <c r="I23" s="1">
-        <f>STDEV(I2:I20)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K23" s="1"/>
@@ -16450,11 +16330,11 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="AC23" s="17">
+      <c r="AC23" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD23" s="18">
+      <c r="AD23" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -16464,95 +16344,95 @@
         <v>63</v>
       </c>
       <c r="C24">
-        <f>CONFIDENCE(0.05,C23,COUNT(C2:C19))</f>
+        <f t="shared" ref="C24:I24" si="6">CONFIDENCE(0.05,C23,COUNT(C2:C19))</f>
         <v>1.2555365620833241</v>
       </c>
       <c r="D24">
-        <f>CONFIDENCE(0.05,D23,COUNT(D2:D19))</f>
+        <f t="shared" si="6"/>
         <v>1.5601968369738042</v>
       </c>
       <c r="E24">
-        <f>CONFIDENCE(0.05,E23,COUNT(E2:E19))</f>
+        <f t="shared" si="6"/>
         <v>1.3894219902172624</v>
       </c>
       <c r="F24">
-        <f>CONFIDENCE(0.05,F23,COUNT(F2:F19))</f>
+        <f t="shared" si="6"/>
         <v>1.684178858798749</v>
       </c>
       <c r="G24">
-        <f>CONFIDENCE(0.05,G23,COUNT(G2:G19))</f>
+        <f t="shared" si="6"/>
         <v>1.077601641194579</v>
       </c>
       <c r="H24">
-        <f>CONFIDENCE(0.05,H23,COUNT(H2:H19))</f>
+        <f t="shared" si="6"/>
         <v>0.10888688803000299</v>
       </c>
       <c r="I24" t="e">
-        <f>CONFIDENCE(0.05,I23,COUNT(I2:I19))</f>
+        <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
       <c r="L24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD24" s="18">
+      <c r="AD24" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O25" s="1"/>
-      <c r="AC25" s="17">
+      <c r="AC25" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD25" s="18">
+      <c r="AD25" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O26" s="1"/>
-      <c r="AC26" s="17">
+      <c r="AC26" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD26" s="18">
+      <c r="AD26" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O27" s="1"/>
-      <c r="AC27" s="17">
+      <c r="AC27" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD27" s="18">
+      <c r="AD27" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O28" s="1"/>
-      <c r="AC28" s="17">
+      <c r="AC28" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD28" s="18">
+      <c r="AD28" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O29" s="1"/>
-      <c r="AC29" s="17">
+      <c r="AC29" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD29" s="18">
+      <c r="AD29" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -16602,8 +16482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{735939E8-15A8-49BB-845D-CC0815CA17CA}">
   <dimension ref="A1:AD43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16651,86 +16531,86 @@
       <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="18" t="s">
+      <c r="AD1" s="15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>43955</v>
       </c>
-      <c r="B2" s="16" t="str">
+      <c r="B2" s="13" t="str">
         <f>CONCATENATE("Week 1 (", TEXT(A2,"MMM D"), ")")</f>
         <v>Week 1 (May 4)</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="13">
         <v>7</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="13">
         <v>5.5</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="13">
         <v>9</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="13">
         <v>7</v>
       </c>
-      <c r="G2" s="16">
+      <c r="G2" s="13">
         <v>7.5</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="13">
         <v>0</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="13">
         <v>0</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="9">
         <f t="shared" ref="J2:J19" si="0">SUM(C2:I2)</f>
         <v>36</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="10">
         <f>AVERAGE(J2:J2)</f>
         <v>36</v>
       </c>
-      <c r="L2" s="23">
+      <c r="L2" s="20">
         <v>7.5</v>
       </c>
-      <c r="M2" s="24">
-        <f t="shared" ref="M2:M19" si="1">L2/J2</f>
+      <c r="M2" s="21">
+        <f>IF(J2,L2/J2,0)</f>
         <v>0.20833333333333334</v>
       </c>
-      <c r="N2" s="25">
+      <c r="N2" s="22">
         <f>AVERAGE(M$2:M2)*100</f>
         <v>20.833333333333336</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="AC2" s="11">
+      <c r="AC2" s="8">
         <v>45</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AD2" s="8">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="7">
         <f>A2+7</f>
         <v>43962</v>
       </c>
@@ -16759,37 +16639,37 @@
       <c r="I3">
         <v>0</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="10">
         <f>AVERAGE(J$2:J3)</f>
         <v>32.5</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="20">
         <v>9.5</v>
       </c>
-      <c r="M3" s="24">
-        <f t="shared" si="1"/>
+      <c r="M3" s="21">
+        <f t="shared" ref="M3:M19" si="1">IF(J3,L3/J3,0)</f>
         <v>0.32758620689655171</v>
       </c>
-      <c r="N3" s="25">
+      <c r="N3" s="22">
         <f>AVERAGE(M$2:M3)*100</f>
         <v>26.795977011494255</v>
       </c>
       <c r="O3" s="1"/>
-      <c r="AC3" s="17">
+      <c r="AC3" s="14">
         <f>AC2</f>
         <v>45</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="15">
         <f>AD2</f>
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <f t="shared" ref="A4:A19" si="2">A3+7</f>
         <v>43969</v>
       </c>
@@ -16818,37 +16698,37 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <f t="shared" si="0"/>
         <v>54.5</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="10">
         <f>AVERAGE(J$2:J4)</f>
         <v>39.833333333333336</v>
       </c>
-      <c r="L4" s="23">
+      <c r="L4" s="20">
         <v>16.5</v>
       </c>
-      <c r="M4" s="24">
+      <c r="M4" s="21">
         <f t="shared" si="1"/>
         <v>0.30275229357798167</v>
       </c>
-      <c r="N4" s="25">
+      <c r="N4" s="22">
         <f>AVERAGE(M$2:M4)*100</f>
         <v>27.955727793595557</v>
       </c>
       <c r="O4" s="1"/>
-      <c r="AC4" s="17">
+      <c r="AC4" s="14">
         <f t="shared" ref="AC4:AD29" si="3">AC3</f>
         <v>45</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <f t="shared" si="2"/>
         <v>43976</v>
       </c>
@@ -16877,37 +16757,37 @@
       <c r="I5">
         <v>0</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="9">
         <f t="shared" si="0"/>
         <v>47.5</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="10">
         <f>AVERAGE(J$2:J5)</f>
         <v>41.75</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="20">
         <v>6</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="21">
         <f t="shared" si="1"/>
         <v>0.12631578947368421</v>
       </c>
-      <c r="N5" s="25">
+      <c r="N5" s="22">
         <f>AVERAGE(M$2:M5)*100</f>
         <v>24.12469058203877</v>
       </c>
       <c r="O5" s="1"/>
-      <c r="AC5" s="17">
+      <c r="AC5" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <f t="shared" si="2"/>
         <v>43983</v>
       </c>
@@ -16936,37 +16816,37 @@
       <c r="I6">
         <v>0</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="9">
         <f t="shared" si="0"/>
         <v>33.5</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="10">
         <f>AVERAGE(J$2:J6)</f>
         <v>40.1</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <v>7.5</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="21">
         <f t="shared" si="1"/>
         <v>0.22388059701492538</v>
       </c>
-      <c r="N6" s="25">
+      <c r="N6" s="22">
         <f>AVERAGE(M$2:M6)*100</f>
         <v>23.777364405929525</v>
       </c>
       <c r="O6" s="1"/>
-      <c r="AC6" s="17">
+      <c r="AC6" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD6" s="18">
+      <c r="AD6" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="7">
         <f t="shared" si="2"/>
         <v>43990</v>
       </c>
@@ -16995,37 +16875,37 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="9">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="10">
         <f>AVERAGE(J$2:J7)</f>
         <v>41.416666666666664</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="20">
         <v>3</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="21">
         <f t="shared" si="1"/>
         <v>6.25E-2</v>
       </c>
-      <c r="N7" s="25">
+      <c r="N7" s="22">
         <f>AVERAGE(M$2:M7)*100</f>
         <v>20.856137004941271</v>
       </c>
       <c r="O7" s="1"/>
-      <c r="AC7" s="17">
+      <c r="AC7" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD7" s="18">
+      <c r="AD7" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="7">
         <f t="shared" si="2"/>
         <v>43997</v>
       </c>
@@ -17054,37 +16934,37 @@
       <c r="I8">
         <v>0</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="9">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="10">
         <f>AVERAGE(J$2:J8)</f>
         <v>40.857142857142854</v>
       </c>
-      <c r="L8" s="23">
+      <c r="L8" s="20">
         <v>0</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N8" s="25">
+      <c r="N8" s="22">
         <f>AVERAGE(M$2:M8)*100</f>
         <v>17.876688861378231</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="AC8" s="17">
+      <c r="AC8" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD8" s="18">
+      <c r="AD8" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="7">
         <f t="shared" si="2"/>
         <v>44004</v>
       </c>
@@ -17113,37 +16993,37 @@
       <c r="I9">
         <v>0</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="10">
         <f>AVERAGE(J$2:J9)</f>
         <v>40.25</v>
       </c>
-      <c r="L9" s="23">
+      <c r="L9" s="20">
         <v>10</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="21">
         <f t="shared" si="1"/>
         <v>0.27777777777777779</v>
       </c>
-      <c r="N9" s="25">
+      <c r="N9" s="22">
         <f>AVERAGE(M$2:M9)*100</f>
         <v>19.114324975928177</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="AC9" s="17">
+      <c r="AC9" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD9" s="18">
+      <c r="AD9" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="7">
         <f t="shared" si="2"/>
         <v>44011</v>
       </c>
@@ -17172,37 +17052,37 @@
       <c r="I10">
         <v>0</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="9">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="10">
         <f>AVERAGE(J$2:J10)</f>
         <v>39.777777777777779</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="20">
         <v>8</v>
       </c>
-      <c r="M10" s="24">
+      <c r="M10" s="21">
         <f t="shared" si="1"/>
         <v>0.22222222222222221</v>
       </c>
-      <c r="N10" s="25">
+      <c r="N10" s="22">
         <f>AVERAGE(M$2:M10)*100</f>
         <v>19.459646892183073</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="AC10" s="17">
+      <c r="AC10" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD10" s="18">
+      <c r="AD10" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="7">
         <f t="shared" si="2"/>
         <v>44018</v>
       </c>
@@ -17210,35 +17090,35 @@
         <f>CONCATENATE("Week 10 (", TEXT(A11,"MMM D"), ")")</f>
         <v>Week 10 (Jul 6)</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="10">
         <f>AVERAGE(J$2:J11)</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="L11" s="23"/>
-      <c r="M11" s="24" t="e">
+      <c r="L11" s="20"/>
+      <c r="M11" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N11" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
         <f>AVERAGE(M$2:M11)*100</f>
-        <v>#DIV/0!</v>
+        <v>17.513682202964766</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="AC11" s="17">
+      <c r="AC11" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD11" s="18">
+      <c r="AD11" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+      <c r="A12" s="7">
         <f t="shared" si="2"/>
         <v>44025</v>
       </c>
@@ -17246,35 +17126,35 @@
         <f>CONCATENATE("Week 11 (", TEXT(A12,"MMM D"), ")")</f>
         <v>Week 11 (Jul 13)</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="10">
         <f>AVERAGE(J$2:J12)</f>
         <v>32.545454545454547</v>
       </c>
-      <c r="L12" s="23"/>
-      <c r="M12" s="24" t="e">
+      <c r="L12" s="20"/>
+      <c r="M12" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N12" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="N12" s="22">
         <f>AVERAGE(M$2:M12)*100</f>
-        <v>#DIV/0!</v>
+        <v>15.921529275422513</v>
       </c>
       <c r="O12" s="1"/>
-      <c r="AC12" s="17">
+      <c r="AC12" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD12" s="18">
+      <c r="AD12" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="7">
         <f t="shared" si="2"/>
         <v>44032</v>
       </c>
@@ -17282,35 +17162,35 @@
         <f>CONCATENATE("Week 12 (", TEXT(A13,"MMM D"), ")")</f>
         <v>Week 12 (Jul 20)</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="10">
         <f>AVERAGE(J$2:J13)</f>
         <v>29.833333333333332</v>
       </c>
-      <c r="L13" s="23"/>
-      <c r="M13" s="24" t="e">
+      <c r="L13" s="20"/>
+      <c r="M13" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N13" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="N13" s="22">
         <f>AVERAGE(M$2:M13)*100</f>
-        <v>#DIV/0!</v>
+        <v>14.594735169137305</v>
       </c>
       <c r="O13" s="1"/>
-      <c r="AC13" s="17">
+      <c r="AC13" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD13" s="18">
+      <c r="AD13" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <f t="shared" si="2"/>
         <v>44039</v>
       </c>
@@ -17318,35 +17198,35 @@
         <f>CONCATENATE("Week 13 (", TEXT(A14,"MMM D"), ")")</f>
         <v>Week 13 (Jul 27)</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="10">
         <f>AVERAGE(J$2:J14)</f>
         <v>27.53846153846154</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="24" t="e">
+      <c r="L14" s="20"/>
+      <c r="M14" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N14" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="N14" s="22">
         <f>AVERAGE(M$2:M14)*100</f>
-        <v>#DIV/0!</v>
+        <v>13.47206323304982</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="AC14" s="17">
+      <c r="AC14" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD14" s="18">
+      <c r="AD14" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="7">
         <f t="shared" si="2"/>
         <v>44046</v>
       </c>
@@ -17354,35 +17234,35 @@
         <f>CONCATENATE("Week 14 (", TEXT(A15,"MMM D"), ")")</f>
         <v>Week 14 (Aug 3)</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="10">
         <f>AVERAGE(J$2:J15)</f>
         <v>25.571428571428573</v>
       </c>
-      <c r="L15" s="23"/>
-      <c r="M15" s="24" t="e">
+      <c r="L15" s="20"/>
+      <c r="M15" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N15" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="N15" s="22">
         <f>AVERAGE(M$2:M15)*100</f>
-        <v>#DIV/0!</v>
+        <v>12.509773002117688</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="AC15" s="17">
+      <c r="AC15" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD15" s="18">
+      <c r="AD15" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="7">
         <f t="shared" si="2"/>
         <v>44053</v>
       </c>
@@ -17390,35 +17270,35 @@
         <f>CONCATENATE("Week 15 (", TEXT(A16,"MMM D"), ")")</f>
         <v>Week 15 (Aug 10)</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="10">
         <f>AVERAGE(J$2:J16)</f>
         <v>23.866666666666667</v>
       </c>
-      <c r="L16" s="23"/>
-      <c r="M16" s="24" t="e">
+      <c r="L16" s="20"/>
+      <c r="M16" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N16" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="N16" s="22">
         <f>AVERAGE(M$2:M16)*100</f>
-        <v>#DIV/0!</v>
+        <v>11.675788135309844</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="AC16" s="17">
+      <c r="AC16" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD16" s="18">
+      <c r="AD16" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
+      <c r="A17" s="7">
         <f t="shared" si="2"/>
         <v>44060</v>
       </c>
@@ -17426,35 +17306,35 @@
         <f>CONCATENATE("Week 16 (", TEXT(A17,"MMM D"), ")")</f>
         <v>Week 16 (Aug 17)</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="10">
         <f>AVERAGE(J$2:J17)</f>
         <v>22.375</v>
       </c>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24" t="e">
+      <c r="L17" s="20"/>
+      <c r="M17" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N17" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="N17" s="22">
         <f>AVERAGE(M$2:M17)*100</f>
-        <v>#DIV/0!</v>
+        <v>10.946051376852978</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="AC17" s="17">
+      <c r="AC17" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD17" s="18">
+      <c r="AD17" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
+      <c r="A18" s="7">
         <f t="shared" si="2"/>
         <v>44067</v>
       </c>
@@ -17462,35 +17342,35 @@
         <f>CONCATENATE("Week 17 (", TEXT(A18,"MMM D"), ")")</f>
         <v>Week 17 (Aug 24)</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="10">
         <f>AVERAGE(J$2:J18)</f>
         <v>21.058823529411764</v>
       </c>
-      <c r="L18" s="23"/>
-      <c r="M18" s="24" t="e">
+      <c r="L18" s="20"/>
+      <c r="M18" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N18" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="N18" s="22">
         <f>AVERAGE(M$2:M18)*100</f>
-        <v>#DIV/0!</v>
+        <v>10.302166001743979</v>
       </c>
       <c r="O18" s="1"/>
-      <c r="AC18" s="17">
+      <c r="AC18" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD18" s="18">
+      <c r="AD18" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
+      <c r="A19" s="7">
         <f t="shared" si="2"/>
         <v>44074</v>
       </c>
@@ -17519,54 +17399,54 @@
       <c r="I19" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="10">
         <f>AVERAGE(J$2:J19)</f>
         <v>19.888888888888889</v>
       </c>
-      <c r="L19" s="23"/>
-      <c r="M19" s="24" t="e">
+      <c r="L19" s="20"/>
+      <c r="M19" s="21">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N19" s="25" t="e">
+        <v>0</v>
+      </c>
+      <c r="N19" s="22">
         <f>AVERAGE(M$2:M19)*100</f>
-        <v>#DIV/0!</v>
+        <v>9.7298234460915367</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="AC19" s="17">
+      <c r="AC19" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD19" s="18">
+      <c r="AD19" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="40" t="s">
+      <c r="F20" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="40" t="s">
+      <c r="G20" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="40" t="s">
+      <c r="I20" s="34" t="s">
         <v>6</v>
       </c>
       <c r="K20" s="1"/>
@@ -17574,11 +17454,11 @@
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="1"/>
-      <c r="AC20" s="17">
+      <c r="AC20" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD20" s="18">
+      <c r="AD20" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -17587,23 +17467,23 @@
       <c r="A21" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
-      <c r="AC21" s="17">
+      <c r="AC21" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD21" s="18">
+      <c r="AD21" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -17613,42 +17493,42 @@
         <v>64</v>
       </c>
       <c r="C22">
-        <f>AVERAGE(C2:C19)</f>
+        <f t="shared" ref="C22:I22" si="4">AVERAGE(C2:C19)</f>
         <v>8.5</v>
       </c>
       <c r="D22">
-        <f>AVERAGE(D2:D19)</f>
+        <f t="shared" si="4"/>
         <v>7.7777777777777777</v>
       </c>
       <c r="E22">
-        <f>AVERAGE(E2:E19)</f>
+        <f t="shared" si="4"/>
         <v>6.2222222222222223</v>
       </c>
       <c r="F22">
-        <f>AVERAGE(F2:F19)</f>
+        <f t="shared" si="4"/>
         <v>8.1666666666666661</v>
       </c>
       <c r="G22">
-        <f>AVERAGE(G2:G19)</f>
+        <f t="shared" si="4"/>
         <v>8.6666666666666661</v>
       </c>
       <c r="H22">
-        <f>AVERAGE(H2:H19)</f>
+        <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="I22">
-        <f>AVERAGE(I2:I19)</f>
+        <f t="shared" si="4"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="O22" s="1"/>
-      <c r="AC22" s="17">
+      <c r="AC22" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD22" s="18">
+      <c r="AD22" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -17658,42 +17538,42 @@
         <v>62</v>
       </c>
       <c r="C23" s="1">
-        <f>STDEV(C2:C20)</f>
+        <f t="shared" ref="C23:I23" si="5">STDEV(C2:C20)</f>
         <v>2.1065374432940898</v>
       </c>
       <c r="D23" s="1">
-        <f>STDEV(D2:D20)</f>
+        <f t="shared" si="5"/>
         <v>1.9702650695894812</v>
       </c>
       <c r="E23" s="1">
-        <f>STDEV(E2:E20)</f>
+        <f t="shared" si="5"/>
         <v>3.0425227105881136</v>
       </c>
       <c r="F23" s="1">
-        <f>STDEV(F2:F20)</f>
+        <f t="shared" si="5"/>
         <v>2.2220486043288972</v>
       </c>
       <c r="G23" s="1">
-        <f>STDEV(G2:G20)</f>
+        <f t="shared" si="5"/>
         <v>1.5612494995995996</v>
       </c>
       <c r="H23" s="1">
-        <f>STDEV(H2:H20)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="I23" s="1">
-        <f>STDEV(I2:I20)</f>
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
-      <c r="AC23" s="17">
+      <c r="AC23" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD23" s="18">
+      <c r="AD23" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -17703,95 +17583,95 @@
         <v>63</v>
       </c>
       <c r="C24">
-        <f>CONFIDENCE(0.05,C23,COUNT(C2:C19))</f>
+        <f t="shared" ref="C24:I24" si="6">CONFIDENCE(0.05,C23,COUNT(C2:C19))</f>
         <v>1.3762458403138338</v>
       </c>
       <c r="D24">
-        <f>CONFIDENCE(0.05,D23,COUNT(D2:D19))</f>
+        <f t="shared" si="6"/>
         <v>1.2872161921308951</v>
       </c>
       <c r="E24">
-        <f>CONFIDENCE(0.05,E23,COUNT(E2:E19))</f>
+        <f t="shared" si="6"/>
         <v>1.9877449782992944</v>
       </c>
       <c r="F24">
-        <f>CONFIDENCE(0.05,F23,COUNT(F2:F19))</f>
+        <f t="shared" si="6"/>
         <v>1.45171174546071</v>
       </c>
       <c r="G24">
-        <f>CONFIDENCE(0.05,G23,COUNT(G2:G19))</f>
+        <f t="shared" si="6"/>
         <v>1.0199975966987986</v>
       </c>
       <c r="H24">
-        <f>CONFIDENCE(0.05,H23,COUNT(H2:H19))</f>
+        <f t="shared" si="6"/>
         <v>0.65332132818001787</v>
       </c>
       <c r="I24">
-        <f>CONFIDENCE(0.05,I23,COUNT(I2:I19))</f>
+        <f t="shared" si="6"/>
         <v>0.21777377606000595</v>
       </c>
       <c r="L24" s="1"/>
       <c r="O24" s="1"/>
-      <c r="AC24" s="17">
+      <c r="AC24" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD24" s="18">
+      <c r="AD24" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O25" s="1"/>
-      <c r="AC25" s="17">
+      <c r="AC25" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD25" s="18">
+      <c r="AD25" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O26" s="1"/>
-      <c r="AC26" s="17">
+      <c r="AC26" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD26" s="18">
+      <c r="AD26" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="O27" s="1"/>
-      <c r="AC27" s="17">
+      <c r="AC27" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD27" s="18">
+      <c r="AD27" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O28" s="1"/>
-      <c r="AC28" s="17">
+      <c r="AC28" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD28" s="18">
+      <c r="AD28" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="O29" s="1"/>
-      <c r="AC29" s="17">
+      <c r="AC29" s="14">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="AD29" s="18">
+      <c r="AD29" s="15">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
@@ -17905,31 +17785,30 @@
       <c r="A2">
         <v>2019</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="36">
+      <c r="B2" s="30"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="31"/>
+      <c r="J2">
         <f>AVERAGE('Fall 2019'!$J$2:$J$6)</f>
         <v>39.200000000000003</v>
       </c>
-      <c r="K2" s="34">
+      <c r="K2" s="1">
         <f>AVERAGE('Fall 2019'!$J$7:$J$11)</f>
         <v>47.4</v>
       </c>
-      <c r="L2" s="34">
+      <c r="L2" s="1">
         <f>AVERAGE('Fall 2019'!$J$12:$J$15)</f>
         <v>38</v>
       </c>
-      <c r="M2" s="35">
+      <c r="M2" s="31">
         <f>AVERAGE('Fall 2019'!$J$16:$J$19)</f>
         <v>28.375</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="4">
         <f t="shared" ref="N2:N6" si="0">AVERAGE(B2:M2)</f>
         <v>38.243749999999999</v>
       </c>
@@ -17942,49 +17821,48 @@
         <v>7.6372180878758833</v>
       </c>
       <c r="Q2" s="4"/>
-      <c r="S2" s="26"/>
+      <c r="S2" s="23"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2020</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="1">
         <f>AVERAGE('Winter 2020'!$J$2:$J$6)</f>
         <v>31.1</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="30">
         <f>AVERAGE('Winter 2020'!$J$7:$J$10)</f>
         <v>38.25</v>
       </c>
-      <c r="D3" s="34">
+      <c r="D3" s="1">
         <f>AVERAGE('Winter 2020'!$J$11:$J$14)</f>
         <v>21.25</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="31">
         <f>AVERAGE('Winter 2020'!$J$15:$J$19)</f>
         <v>22.3</v>
       </c>
-      <c r="F3" s="36">
+      <c r="F3">
         <f>AVERAGE('Summer 2020'!$J$2:$J$5)</f>
         <v>41.75</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G3" s="1">
         <f>AVERAGE('Summer 2020'!$J$6:$J$9)</f>
         <v>38.75</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="1">
         <f>AVERAGE('Summer 2020'!$J$10:$J$14)</f>
         <v>7.2</v>
       </c>
-      <c r="I3" s="35">
+      <c r="I3" s="31">
         <f>AVERAGE('Summer 2020'!$J$15:$J$18)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="36"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="37">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="4">
         <f t="shared" si="0"/>
         <v>25.074999999999996</v>
       </c>
@@ -17997,25 +17875,23 @@
         <v>10.624511211529349</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="S3" s="26"/>
+      <c r="S3" s="23"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="37" t="e">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="31"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="31"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -18028,25 +17904,23 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q4" s="4"/>
-      <c r="S4" s="26"/>
+      <c r="S4" s="23"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="37" t="e">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="31"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="31"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="4" t="e">
         <f>AVERAGE(B5:M5)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18059,129 +17933,129 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Q5" s="4"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="28"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="25"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6" s="32">
         <f t="shared" ref="B6:M6" si="3">AVERAGE(B2:B4)</f>
         <v>31.1</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="32">
         <f t="shared" si="3"/>
         <v>38.25</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="32">
         <f t="shared" si="3"/>
         <v>21.25</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="33">
         <f t="shared" si="3"/>
         <v>22.3</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="32">
         <f t="shared" si="3"/>
         <v>41.75</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="32">
         <f t="shared" si="3"/>
         <v>38.75</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="32">
         <f t="shared" si="3"/>
         <v>7.2</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J6" s="32">
         <f t="shared" si="3"/>
         <v>39.200000000000003</v>
       </c>
-      <c r="K6" s="38">
+      <c r="K6" s="32">
         <f t="shared" si="3"/>
         <v>47.4</v>
       </c>
-      <c r="L6" s="38">
+      <c r="L6" s="32">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="33">
         <f t="shared" si="3"/>
         <v>28.375</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="32">
         <f t="shared" si="0"/>
         <v>29.464583333333326</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="26">
         <f t="shared" si="1"/>
         <v>14.429107491193783</v>
       </c>
-      <c r="P6" s="29">
+      <c r="P6" s="26">
         <f t="shared" si="2"/>
         <v>8.1638860962432513</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="S6" s="30"/>
+      <c r="Q6" s="13"/>
+      <c r="S6" s="27"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="34" t="e">
+      <c r="B7" s="1" t="e">
         <f t="shared" ref="B7:M7" si="4">STDEV(B2:B4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C7" s="34" t="e">
+      <c r="C7" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D7" s="34" t="e">
+      <c r="D7" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E7" s="35" t="e">
+      <c r="E7" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="34" t="e">
+      <c r="F7" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="34" t="e">
+      <c r="G7" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="34" t="e">
+      <c r="H7" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="35" t="e">
+      <c r="I7" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="34" t="e">
+      <c r="J7" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="34" t="e">
+      <c r="K7" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="34" t="e">
+      <c r="L7" s="1" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="35" t="e">
+      <c r="M7" s="31" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="34" t="e">
+      <c r="N7" s="1" t="e">
         <f>STDEV(N2:N2)</f>
         <v>#DIV/0!</v>
       </c>
@@ -18192,55 +18066,55 @@
       <c r="A8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="31" t="e">
+      <c r="B8" s="28" t="e">
         <f t="shared" ref="B8:M8" si="5">CONFIDENCE(0.05,B7,COUNT(B2:B4))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C8" s="31" t="e">
+      <c r="C8" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D8" s="31" t="e">
+      <c r="D8" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E8" s="32" t="e">
+      <c r="E8" s="29" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="31" t="e">
+      <c r="F8" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="31" t="e">
+      <c r="G8" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="31" t="e">
+      <c r="H8" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="32" t="e">
+      <c r="I8" s="29" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="31" t="e">
+      <c r="J8" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="31" t="e">
+      <c r="K8" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="31" t="e">
+      <c r="L8" s="28" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="32" t="e">
+      <c r="M8" s="29" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="31" t="e">
+      <c r="N8" s="28" t="e">
         <f>CONFIDENCE(0.05,N7,COUNT(N2:N3))</f>
         <v>#DIV/0!</v>
       </c>
